--- a/archive/tournoments_2024.xlsx
+++ b/archive/tournoments_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee16c21b72f3fde9/Documents/Internet/tennis-data/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5CCE082C-E7FE-4FB2-924E-9E04C25B1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E2499D-B630-4C99-8C5A-CD68DA1207F5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5CCE082C-E7FE-4FB2-924E-9E04C25B1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EECBEE2-33A6-4F97-953C-701DCAB1971A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB451EE0-1C45-4E3B-8988-DF9692D1A74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="211">
   <si>
     <t>ATP</t>
   </si>
@@ -634,6 +634,42 @@
   <si>
     <t>4th Round</t>
   </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Open Sud de France</t>
+  </si>
+  <si>
+    <t>Indoor</t>
+  </si>
+  <si>
+    <t>Mmoh M.</t>
+  </si>
+  <si>
+    <t>Paire B.</t>
+  </si>
+  <si>
+    <t>Martinez P.</t>
+  </si>
+  <si>
+    <t>Escoffier A.</t>
+  </si>
+  <si>
+    <t>Blanchet U.</t>
+  </si>
+  <si>
+    <t>Mayot H.</t>
+  </si>
+  <si>
+    <t>Pouille L.</t>
+  </si>
+  <si>
+    <t>Llamas Ruiz P.</t>
+  </si>
+  <si>
+    <t>Svrcina D.</t>
+  </si>
 </sst>
 </file>
 
@@ -677,11 +713,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,9 +741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -744,7 +781,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -850,7 +887,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -992,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155D0E9E-0A55-4076-9395-03276EB23156}">
-  <dimension ref="A1:AJ240"/>
+  <dimension ref="A1:AJ267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A240" sqref="A240"/>
+      <selection pane="bottomRight" activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27013,6 +27050,2556 @@
         <v>3.29</v>
       </c>
     </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>6</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D241" s="2">
+        <v>45320</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" t="s">
+        <v>201</v>
+      </c>
+      <c r="G241" t="s">
+        <v>40</v>
+      </c>
+      <c r="H241" t="s">
+        <v>41</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241" t="s">
+        <v>202</v>
+      </c>
+      <c r="K241" t="s">
+        <v>88</v>
+      </c>
+      <c r="L241">
+        <v>133</v>
+      </c>
+      <c r="M241">
+        <v>126</v>
+      </c>
+      <c r="N241">
+        <v>497</v>
+      </c>
+      <c r="O241">
+        <v>508</v>
+      </c>
+      <c r="P241">
+        <v>6</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241">
+        <v>5</v>
+      </c>
+      <c r="Z241">
+        <v>2</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC241">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD241">
+        <v>1.62</v>
+      </c>
+      <c r="AE241">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF241">
+        <v>1.74</v>
+      </c>
+      <c r="AG241">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AH241">
+        <v>1.74</v>
+      </c>
+      <c r="AI241">
+        <v>2.19</v>
+      </c>
+      <c r="AJ241">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45320</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F242" t="s">
+        <v>201</v>
+      </c>
+      <c r="G242" t="s">
+        <v>40</v>
+      </c>
+      <c r="H242" t="s">
+        <v>41</v>
+      </c>
+      <c r="I242">
+        <v>3</v>
+      </c>
+      <c r="J242" t="s">
+        <v>203</v>
+      </c>
+      <c r="K242" t="s">
+        <v>52</v>
+      </c>
+      <c r="L242">
+        <v>112</v>
+      </c>
+      <c r="M242">
+        <v>49</v>
+      </c>
+      <c r="N242">
+        <v>551</v>
+      </c>
+      <c r="O242">
+        <v>970</v>
+      </c>
+      <c r="P242">
+        <v>2</v>
+      </c>
+      <c r="Q242">
+        <v>6</v>
+      </c>
+      <c r="R242">
+        <v>7</v>
+      </c>
+      <c r="S242">
+        <v>6</v>
+      </c>
+      <c r="T242">
+        <v>6</v>
+      </c>
+      <c r="U242">
+        <v>3</v>
+      </c>
+      <c r="Z242">
+        <v>2</v>
+      </c>
+      <c r="AA242">
+        <v>1</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC242">
+        <v>3.75</v>
+      </c>
+      <c r="AD242">
+        <v>1.29</v>
+      </c>
+      <c r="AE242">
+        <v>3.05</v>
+      </c>
+      <c r="AF242">
+        <v>1.43</v>
+      </c>
+      <c r="AG242">
+        <v>3.8</v>
+      </c>
+      <c r="AH242">
+        <v>1.43</v>
+      </c>
+      <c r="AI242">
+        <v>3.46</v>
+      </c>
+      <c r="AJ242">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>6</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45320</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" t="s">
+        <v>201</v>
+      </c>
+      <c r="G243" t="s">
+        <v>40</v>
+      </c>
+      <c r="H243" t="s">
+        <v>41</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243" t="s">
+        <v>204</v>
+      </c>
+      <c r="K243" t="s">
+        <v>144</v>
+      </c>
+      <c r="L243">
+        <v>99</v>
+      </c>
+      <c r="M243">
+        <v>75</v>
+      </c>
+      <c r="N243">
+        <v>616</v>
+      </c>
+      <c r="O243">
+        <v>746</v>
+      </c>
+      <c r="P243">
+        <v>6</v>
+      </c>
+      <c r="Q243">
+        <v>4</v>
+      </c>
+      <c r="R243">
+        <v>7</v>
+      </c>
+      <c r="S243">
+        <v>6</v>
+      </c>
+      <c r="Z243">
+        <v>2</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC243">
+        <v>1.91</v>
+      </c>
+      <c r="AD243">
+        <v>1.91</v>
+      </c>
+      <c r="AE243">
+        <v>1.94</v>
+      </c>
+      <c r="AF243">
+        <v>1.94</v>
+      </c>
+      <c r="AG243">
+        <v>1.95</v>
+      </c>
+      <c r="AH243">
+        <v>2</v>
+      </c>
+      <c r="AI243">
+        <v>1.88</v>
+      </c>
+      <c r="AJ243">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F244" t="s">
+        <v>201</v>
+      </c>
+      <c r="G244" t="s">
+        <v>40</v>
+      </c>
+      <c r="H244" t="s">
+        <v>41</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244" t="s">
+        <v>133</v>
+      </c>
+      <c r="K244" t="s">
+        <v>205</v>
+      </c>
+      <c r="L244">
+        <v>71</v>
+      </c>
+      <c r="M244">
+        <v>172</v>
+      </c>
+      <c r="N244">
+        <v>768</v>
+      </c>
+      <c r="O244">
+        <v>354</v>
+      </c>
+      <c r="P244">
+        <v>7</v>
+      </c>
+      <c r="Q244">
+        <v>6</v>
+      </c>
+      <c r="R244">
+        <v>6</v>
+      </c>
+      <c r="S244">
+        <v>3</v>
+      </c>
+      <c r="Z244">
+        <v>2</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC244">
+        <v>1.44</v>
+      </c>
+      <c r="AD244">
+        <v>2.75</v>
+      </c>
+      <c r="AE244">
+        <v>1.49</v>
+      </c>
+      <c r="AF244">
+        <v>2.79</v>
+      </c>
+      <c r="AG244">
+        <v>1.49</v>
+      </c>
+      <c r="AH244">
+        <v>2.8</v>
+      </c>
+      <c r="AI244">
+        <v>1.45</v>
+      </c>
+      <c r="AJ244">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" t="s">
+        <v>201</v>
+      </c>
+      <c r="G245" t="s">
+        <v>40</v>
+      </c>
+      <c r="H245" t="s">
+        <v>41</v>
+      </c>
+      <c r="I245">
+        <v>3</v>
+      </c>
+      <c r="J245" t="s">
+        <v>193</v>
+      </c>
+      <c r="K245" t="s">
+        <v>206</v>
+      </c>
+      <c r="L245">
+        <v>104</v>
+      </c>
+      <c r="M245">
+        <v>214</v>
+      </c>
+      <c r="N245">
+        <v>591</v>
+      </c>
+      <c r="O245">
+        <v>287</v>
+      </c>
+      <c r="P245">
+        <v>6</v>
+      </c>
+      <c r="Q245">
+        <v>7</v>
+      </c>
+      <c r="R245">
+        <v>6</v>
+      </c>
+      <c r="S245">
+        <v>4</v>
+      </c>
+      <c r="T245">
+        <v>6</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="Z245">
+        <v>2</v>
+      </c>
+      <c r="AA245">
+        <v>1</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC245">
+        <v>1.53</v>
+      </c>
+      <c r="AD245">
+        <v>2.5</v>
+      </c>
+      <c r="AE245">
+        <v>1.63</v>
+      </c>
+      <c r="AF245">
+        <v>2.41</v>
+      </c>
+      <c r="AG245">
+        <v>1.63</v>
+      </c>
+      <c r="AH245">
+        <v>2.88</v>
+      </c>
+      <c r="AI245">
+        <v>1.55</v>
+      </c>
+      <c r="AJ245">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>6</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D246" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>201</v>
+      </c>
+      <c r="G246" t="s">
+        <v>40</v>
+      </c>
+      <c r="H246" t="s">
+        <v>41</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246" t="s">
+        <v>207</v>
+      </c>
+      <c r="K246" t="s">
+        <v>208</v>
+      </c>
+      <c r="L246">
+        <v>144</v>
+      </c>
+      <c r="M246">
+        <v>315</v>
+      </c>
+      <c r="N246">
+        <v>449</v>
+      </c>
+      <c r="O246">
+        <v>172</v>
+      </c>
+      <c r="P246">
+        <v>6</v>
+      </c>
+      <c r="Q246">
+        <v>4</v>
+      </c>
+      <c r="R246">
+        <v>7</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+      <c r="Z246">
+        <v>2</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC246">
+        <v>1.91</v>
+      </c>
+      <c r="AD246">
+        <v>1.91</v>
+      </c>
+      <c r="AE246">
+        <v>1.99</v>
+      </c>
+      <c r="AF246">
+        <v>1.89</v>
+      </c>
+      <c r="AG246">
+        <v>1.99</v>
+      </c>
+      <c r="AH246">
+        <v>2.1</v>
+      </c>
+      <c r="AI246">
+        <v>1.89</v>
+      </c>
+      <c r="AJ246">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" t="s">
+        <v>201</v>
+      </c>
+      <c r="G247" t="s">
+        <v>40</v>
+      </c>
+      <c r="H247" t="s">
+        <v>41</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247" t="s">
+        <v>136</v>
+      </c>
+      <c r="K247" t="s">
+        <v>160</v>
+      </c>
+      <c r="L247">
+        <v>137</v>
+      </c>
+      <c r="M247">
+        <v>88</v>
+      </c>
+      <c r="N247">
+        <v>480</v>
+      </c>
+      <c r="O247">
+        <v>684</v>
+      </c>
+      <c r="P247">
+        <v>6</v>
+      </c>
+      <c r="Q247">
+        <v>1</v>
+      </c>
+      <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
+        <v>3</v>
+      </c>
+      <c r="Z247">
+        <v>2</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC247">
+        <v>1.8</v>
+      </c>
+      <c r="AD247">
+        <v>2</v>
+      </c>
+      <c r="AE247">
+        <v>1.92</v>
+      </c>
+      <c r="AF247">
+        <v>1.97</v>
+      </c>
+      <c r="AG247">
+        <v>1.92</v>
+      </c>
+      <c r="AH247">
+        <v>2.12</v>
+      </c>
+      <c r="AI247">
+        <v>1.78</v>
+      </c>
+      <c r="AJ247">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>6</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" t="s">
+        <v>201</v>
+      </c>
+      <c r="G248" t="s">
+        <v>40</v>
+      </c>
+      <c r="H248" t="s">
+        <v>41</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" t="s">
+        <v>183</v>
+      </c>
+      <c r="K248" t="s">
+        <v>175</v>
+      </c>
+      <c r="L248">
+        <v>83</v>
+      </c>
+      <c r="M248">
+        <v>92</v>
+      </c>
+      <c r="N248">
+        <v>696</v>
+      </c>
+      <c r="O248">
+        <v>636</v>
+      </c>
+      <c r="P248">
+        <v>6</v>
+      </c>
+      <c r="Q248">
+        <v>1</v>
+      </c>
+      <c r="R248">
+        <v>6</v>
+      </c>
+      <c r="S248">
+        <v>3</v>
+      </c>
+      <c r="Z248">
+        <v>2</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC248">
+        <v>1.4</v>
+      </c>
+      <c r="AD248">
+        <v>3</v>
+      </c>
+      <c r="AE248">
+        <v>1.4</v>
+      </c>
+      <c r="AF248">
+        <v>3.18</v>
+      </c>
+      <c r="AG248">
+        <v>1.41</v>
+      </c>
+      <c r="AH248">
+        <v>3.2</v>
+      </c>
+      <c r="AI248">
+        <v>1.38</v>
+      </c>
+      <c r="AJ248">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>6</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" t="s">
+        <v>201</v>
+      </c>
+      <c r="G249" t="s">
+        <v>40</v>
+      </c>
+      <c r="H249" t="s">
+        <v>41</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" t="s">
+        <v>209</v>
+      </c>
+      <c r="K249" t="s">
+        <v>138</v>
+      </c>
+      <c r="L249">
+        <v>156</v>
+      </c>
+      <c r="M249">
+        <v>130</v>
+      </c>
+      <c r="N249">
+        <v>404</v>
+      </c>
+      <c r="O249">
+        <v>500</v>
+      </c>
+      <c r="P249">
+        <v>7</v>
+      </c>
+      <c r="Q249">
+        <v>6</v>
+      </c>
+      <c r="R249">
+        <v>7</v>
+      </c>
+      <c r="S249">
+        <v>5</v>
+      </c>
+      <c r="Z249">
+        <v>2</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC249">
+        <v>2.63</v>
+      </c>
+      <c r="AD249">
+        <v>1.5</v>
+      </c>
+      <c r="AE249">
+        <v>2.44</v>
+      </c>
+      <c r="AF249">
+        <v>1.61</v>
+      </c>
+      <c r="AG249">
+        <v>2.95</v>
+      </c>
+      <c r="AH249">
+        <v>1.61</v>
+      </c>
+      <c r="AI249">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AJ249">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D250" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" t="s">
+        <v>201</v>
+      </c>
+      <c r="G250" t="s">
+        <v>40</v>
+      </c>
+      <c r="H250" t="s">
+        <v>41</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+      <c r="J250" t="s">
+        <v>45</v>
+      </c>
+      <c r="K250" t="s">
+        <v>210</v>
+      </c>
+      <c r="L250">
+        <v>59</v>
+      </c>
+      <c r="M250">
+        <v>194</v>
+      </c>
+      <c r="N250">
+        <v>885</v>
+      </c>
+      <c r="O250">
+        <v>315</v>
+      </c>
+      <c r="P250">
+        <v>6</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>4</v>
+      </c>
+      <c r="S250">
+        <v>6</v>
+      </c>
+      <c r="T250">
+        <v>6</v>
+      </c>
+      <c r="U250">
+        <v>4</v>
+      </c>
+      <c r="Z250">
+        <v>2</v>
+      </c>
+      <c r="AA250">
+        <v>1</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC250">
+        <v>1.36</v>
+      </c>
+      <c r="AD250">
+        <v>3.2</v>
+      </c>
+      <c r="AE250">
+        <v>1.43</v>
+      </c>
+      <c r="AF250">
+        <v>3.02</v>
+      </c>
+      <c r="AG250">
+        <v>1.43</v>
+      </c>
+      <c r="AH250">
+        <v>3.25</v>
+      </c>
+      <c r="AI250">
+        <v>1.36</v>
+      </c>
+      <c r="AJ250">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" t="s">
+        <v>201</v>
+      </c>
+      <c r="G251" t="s">
+        <v>40</v>
+      </c>
+      <c r="H251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+      <c r="J251" t="s">
+        <v>164</v>
+      </c>
+      <c r="K251" t="s">
+        <v>115</v>
+      </c>
+      <c r="L251">
+        <v>106</v>
+      </c>
+      <c r="M251">
+        <v>80</v>
+      </c>
+      <c r="N251">
+        <v>584</v>
+      </c>
+      <c r="O251">
+        <v>715</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>6</v>
+      </c>
+      <c r="R251">
+        <v>6</v>
+      </c>
+      <c r="S251">
+        <v>4</v>
+      </c>
+      <c r="T251">
+        <v>6</v>
+      </c>
+      <c r="U251">
+        <v>2</v>
+      </c>
+      <c r="Z251">
+        <v>2</v>
+      </c>
+      <c r="AA251">
+        <v>1</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC251">
+        <v>1.25</v>
+      </c>
+      <c r="AD251">
+        <v>4</v>
+      </c>
+      <c r="AE251">
+        <v>1.33</v>
+      </c>
+      <c r="AF251">
+        <v>3.6</v>
+      </c>
+      <c r="AG251">
+        <v>1.33</v>
+      </c>
+      <c r="AH251">
+        <v>4.05</v>
+      </c>
+      <c r="AI251">
+        <v>1.25</v>
+      </c>
+      <c r="AJ251">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>6</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D252" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252" t="s">
+        <v>201</v>
+      </c>
+      <c r="G252" t="s">
+        <v>40</v>
+      </c>
+      <c r="H252" t="s">
+        <v>41</v>
+      </c>
+      <c r="I252">
+        <v>3</v>
+      </c>
+      <c r="J252" t="s">
+        <v>159</v>
+      </c>
+      <c r="K252" t="s">
+        <v>134</v>
+      </c>
+      <c r="L252">
+        <v>76</v>
+      </c>
+      <c r="M252">
+        <v>70</v>
+      </c>
+      <c r="N252">
+        <v>738</v>
+      </c>
+      <c r="O252">
+        <v>787</v>
+      </c>
+      <c r="P252">
+        <v>6</v>
+      </c>
+      <c r="Q252">
+        <v>7</v>
+      </c>
+      <c r="R252">
+        <v>6</v>
+      </c>
+      <c r="S252">
+        <v>3</v>
+      </c>
+      <c r="T252">
+        <v>6</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>2</v>
+      </c>
+      <c r="AA252">
+        <v>1</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC252">
+        <v>3.4</v>
+      </c>
+      <c r="AD252">
+        <v>1.33</v>
+      </c>
+      <c r="AE252">
+        <v>3.6</v>
+      </c>
+      <c r="AF252">
+        <v>1.33</v>
+      </c>
+      <c r="AG252">
+        <v>3.6</v>
+      </c>
+      <c r="AH252">
+        <v>1.35</v>
+      </c>
+      <c r="AI252">
+        <v>3.29</v>
+      </c>
+      <c r="AJ252">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>6</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D253" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" t="s">
+        <v>201</v>
+      </c>
+      <c r="G253" t="s">
+        <v>40</v>
+      </c>
+      <c r="H253" t="s">
+        <v>76</v>
+      </c>
+      <c r="I253">
+        <v>3</v>
+      </c>
+      <c r="J253" t="s">
+        <v>202</v>
+      </c>
+      <c r="K253" t="s">
+        <v>133</v>
+      </c>
+      <c r="L253">
+        <v>133</v>
+      </c>
+      <c r="M253">
+        <v>71</v>
+      </c>
+      <c r="N253">
+        <v>497</v>
+      </c>
+      <c r="O253">
+        <v>768</v>
+      </c>
+      <c r="P253">
+        <v>6</v>
+      </c>
+      <c r="Q253">
+        <v>4</v>
+      </c>
+      <c r="R253">
+        <v>6</v>
+      </c>
+      <c r="S253">
+        <v>4</v>
+      </c>
+      <c r="Z253">
+        <v>2</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC253">
+        <v>2.1</v>
+      </c>
+      <c r="AD253">
+        <v>1.73</v>
+      </c>
+      <c r="AE253">
+        <v>2.19</v>
+      </c>
+      <c r="AF253">
+        <v>1.76</v>
+      </c>
+      <c r="AG253">
+        <v>2.19</v>
+      </c>
+      <c r="AH253">
+        <v>1.8</v>
+      </c>
+      <c r="AI253">
+        <v>2.04</v>
+      </c>
+      <c r="AJ253">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>6</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D254" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" t="s">
+        <v>201</v>
+      </c>
+      <c r="G254" t="s">
+        <v>40</v>
+      </c>
+      <c r="H254" t="s">
+        <v>76</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254" t="s">
+        <v>207</v>
+      </c>
+      <c r="K254" t="s">
+        <v>203</v>
+      </c>
+      <c r="L254">
+        <v>144</v>
+      </c>
+      <c r="M254">
+        <v>112</v>
+      </c>
+      <c r="N254">
+        <v>449</v>
+      </c>
+      <c r="O254">
+        <v>551</v>
+      </c>
+      <c r="P254">
+        <v>6</v>
+      </c>
+      <c r="Q254">
+        <v>1</v>
+      </c>
+      <c r="R254">
+        <v>6</v>
+      </c>
+      <c r="S254">
+        <v>4</v>
+      </c>
+      <c r="Z254">
+        <v>2</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC254">
+        <v>1.53</v>
+      </c>
+      <c r="AD254">
+        <v>2.5</v>
+      </c>
+      <c r="AE254">
+        <v>1.5</v>
+      </c>
+      <c r="AF254">
+        <v>2.78</v>
+      </c>
+      <c r="AG254">
+        <v>1.58</v>
+      </c>
+      <c r="AH254">
+        <v>2.78</v>
+      </c>
+      <c r="AI254">
+        <v>1.52</v>
+      </c>
+      <c r="AJ254">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D255" s="2">
+        <v>45322</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255" t="s">
+        <v>201</v>
+      </c>
+      <c r="G255" t="s">
+        <v>40</v>
+      </c>
+      <c r="H255" t="s">
+        <v>76</v>
+      </c>
+      <c r="I255">
+        <v>3</v>
+      </c>
+      <c r="J255" t="s">
+        <v>123</v>
+      </c>
+      <c r="K255" t="s">
+        <v>136</v>
+      </c>
+      <c r="L255">
+        <v>27</v>
+      </c>
+      <c r="M255">
+        <v>137</v>
+      </c>
+      <c r="N255">
+        <v>1459</v>
+      </c>
+      <c r="O255">
+        <v>480</v>
+      </c>
+      <c r="P255">
+        <v>1</v>
+      </c>
+      <c r="Q255">
+        <v>6</v>
+      </c>
+      <c r="R255">
+        <v>7</v>
+      </c>
+      <c r="S255">
+        <v>6</v>
+      </c>
+      <c r="T255">
+        <v>6</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
+      <c r="Z255">
+        <v>2</v>
+      </c>
+      <c r="AA255">
+        <v>1</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC255">
+        <v>1.73</v>
+      </c>
+      <c r="AD255">
+        <v>2.1</v>
+      </c>
+      <c r="AE255">
+        <v>1.8</v>
+      </c>
+      <c r="AF255">
+        <v>2.13</v>
+      </c>
+      <c r="AG255">
+        <v>1.8</v>
+      </c>
+      <c r="AH255">
+        <v>2.13</v>
+      </c>
+      <c r="AI255">
+        <v>1.76</v>
+      </c>
+      <c r="AJ255">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256" t="s">
+        <v>201</v>
+      </c>
+      <c r="G256" t="s">
+        <v>40</v>
+      </c>
+      <c r="H256" t="s">
+        <v>76</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256" t="s">
+        <v>45</v>
+      </c>
+      <c r="K256" t="s">
+        <v>193</v>
+      </c>
+      <c r="L256">
+        <v>59</v>
+      </c>
+      <c r="M256">
+        <v>104</v>
+      </c>
+      <c r="N256">
+        <v>885</v>
+      </c>
+      <c r="O256">
+        <v>591</v>
+      </c>
+      <c r="P256">
+        <v>7</v>
+      </c>
+      <c r="Q256">
+        <v>6</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>6</v>
+      </c>
+      <c r="T256">
+        <v>6</v>
+      </c>
+      <c r="U256">
+        <v>3</v>
+      </c>
+      <c r="Z256">
+        <v>2</v>
+      </c>
+      <c r="AA256">
+        <v>1</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC256">
+        <v>1.8</v>
+      </c>
+      <c r="AD256">
+        <v>2</v>
+      </c>
+      <c r="AE256">
+        <v>1.93</v>
+      </c>
+      <c r="AF256">
+        <v>1.98</v>
+      </c>
+      <c r="AG256">
+        <v>1.93</v>
+      </c>
+      <c r="AH256">
+        <v>2.14</v>
+      </c>
+      <c r="AI256">
+        <v>1.83</v>
+      </c>
+      <c r="AJ256">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D257" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" t="s">
+        <v>201</v>
+      </c>
+      <c r="G257" t="s">
+        <v>40</v>
+      </c>
+      <c r="H257" t="s">
+        <v>76</v>
+      </c>
+      <c r="I257">
+        <v>3</v>
+      </c>
+      <c r="J257" t="s">
+        <v>156</v>
+      </c>
+      <c r="K257" t="s">
+        <v>204</v>
+      </c>
+      <c r="L257">
+        <v>37</v>
+      </c>
+      <c r="M257">
+        <v>99</v>
+      </c>
+      <c r="N257">
+        <v>1154</v>
+      </c>
+      <c r="O257">
+        <v>616</v>
+      </c>
+      <c r="P257">
+        <v>6</v>
+      </c>
+      <c r="Q257">
+        <v>4</v>
+      </c>
+      <c r="R257">
+        <v>6</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>2</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC257">
+        <v>1.36</v>
+      </c>
+      <c r="AD257">
+        <v>3.2</v>
+      </c>
+      <c r="AE257">
+        <v>1.43</v>
+      </c>
+      <c r="AF257">
+        <v>3.07</v>
+      </c>
+      <c r="AG257">
+        <v>1.43</v>
+      </c>
+      <c r="AH257">
+        <v>3.2</v>
+      </c>
+      <c r="AI257">
+        <v>1.37</v>
+      </c>
+      <c r="AJ257">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D258" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258" t="s">
+        <v>201</v>
+      </c>
+      <c r="G258" t="s">
+        <v>40</v>
+      </c>
+      <c r="H258" t="s">
+        <v>76</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+      <c r="J258" t="s">
+        <v>159</v>
+      </c>
+      <c r="K258" t="s">
+        <v>164</v>
+      </c>
+      <c r="L258">
+        <v>76</v>
+      </c>
+      <c r="M258">
+        <v>106</v>
+      </c>
+      <c r="N258">
+        <v>738</v>
+      </c>
+      <c r="O258">
+        <v>584</v>
+      </c>
+      <c r="P258">
+        <v>6</v>
+      </c>
+      <c r="Q258">
+        <v>4</v>
+      </c>
+      <c r="R258">
+        <v>6</v>
+      </c>
+      <c r="S258">
+        <v>1</v>
+      </c>
+      <c r="Z258">
+        <v>2</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC258">
+        <v>1.53</v>
+      </c>
+      <c r="AD258">
+        <v>2.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.69</v>
+      </c>
+      <c r="AF258">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG258">
+        <v>1.69</v>
+      </c>
+      <c r="AH258">
+        <v>2.67</v>
+      </c>
+      <c r="AI258">
+        <v>1.56</v>
+      </c>
+      <c r="AJ258">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D259" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F259" t="s">
+        <v>201</v>
+      </c>
+      <c r="G259" t="s">
+        <v>40</v>
+      </c>
+      <c r="H259" t="s">
+        <v>76</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259" t="s">
+        <v>139</v>
+      </c>
+      <c r="K259" t="s">
+        <v>183</v>
+      </c>
+      <c r="L259">
+        <v>30</v>
+      </c>
+      <c r="M259">
+        <v>83</v>
+      </c>
+      <c r="N259">
+        <v>1345</v>
+      </c>
+      <c r="O259">
+        <v>696</v>
+      </c>
+      <c r="P259">
+        <v>7</v>
+      </c>
+      <c r="Q259">
+        <v>5</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
+        <v>6</v>
+      </c>
+      <c r="T259">
+        <v>7</v>
+      </c>
+      <c r="U259">
+        <v>6</v>
+      </c>
+      <c r="Z259">
+        <v>2</v>
+      </c>
+      <c r="AA259">
+        <v>1</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC259">
+        <v>2</v>
+      </c>
+      <c r="AD259">
+        <v>1.8</v>
+      </c>
+      <c r="AE259">
+        <v>2.1</v>
+      </c>
+      <c r="AF259">
+        <v>1.83</v>
+      </c>
+      <c r="AG259">
+        <v>2.1</v>
+      </c>
+      <c r="AH259">
+        <v>1.83</v>
+      </c>
+      <c r="AI259">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AJ259">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D260" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F260" t="s">
+        <v>201</v>
+      </c>
+      <c r="G260" t="s">
+        <v>40</v>
+      </c>
+      <c r="H260" t="s">
+        <v>76</v>
+      </c>
+      <c r="I260">
+        <v>3</v>
+      </c>
+      <c r="J260" t="s">
+        <v>49</v>
+      </c>
+      <c r="K260" t="s">
+        <v>209</v>
+      </c>
+      <c r="L260">
+        <v>7</v>
+      </c>
+      <c r="M260">
+        <v>156</v>
+      </c>
+      <c r="N260">
+        <v>3685</v>
+      </c>
+      <c r="O260">
+        <v>404</v>
+      </c>
+      <c r="P260">
+        <v>7</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="R260">
+        <v>6</v>
+      </c>
+      <c r="S260">
+        <v>2</v>
+      </c>
+      <c r="Z260">
+        <v>2</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC260">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD260">
+        <v>5.5</v>
+      </c>
+      <c r="AE260">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AF260">
+        <v>6.15</v>
+      </c>
+      <c r="AG260">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AH260">
+        <v>6.25</v>
+      </c>
+      <c r="AI260">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AJ260">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D261" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261" t="s">
+        <v>201</v>
+      </c>
+      <c r="G261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H261" t="s">
+        <v>78</v>
+      </c>
+      <c r="I261">
+        <v>3</v>
+      </c>
+      <c r="J261" t="s">
+        <v>123</v>
+      </c>
+      <c r="K261" t="s">
+        <v>45</v>
+      </c>
+      <c r="L261">
+        <v>27</v>
+      </c>
+      <c r="M261">
+        <v>59</v>
+      </c>
+      <c r="N261">
+        <v>1459</v>
+      </c>
+      <c r="O261">
+        <v>885</v>
+      </c>
+      <c r="P261">
+        <v>4</v>
+      </c>
+      <c r="Q261">
+        <v>6</v>
+      </c>
+      <c r="R261">
+        <v>6</v>
+      </c>
+      <c r="S261">
+        <v>3</v>
+      </c>
+      <c r="T261">
+        <v>6</v>
+      </c>
+      <c r="U261">
+        <v>4</v>
+      </c>
+      <c r="Z261">
+        <v>2</v>
+      </c>
+      <c r="AA261">
+        <v>1</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC261">
+        <v>1.5</v>
+      </c>
+      <c r="AD261">
+        <v>2.63</v>
+      </c>
+      <c r="AE261">
+        <v>1.52</v>
+      </c>
+      <c r="AF261">
+        <v>2.72</v>
+      </c>
+      <c r="AG261">
+        <v>1.52</v>
+      </c>
+      <c r="AH261">
+        <v>2.75</v>
+      </c>
+      <c r="AI261">
+        <v>1.48</v>
+      </c>
+      <c r="AJ261">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>6</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D262" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F262" t="s">
+        <v>201</v>
+      </c>
+      <c r="G262" t="s">
+        <v>40</v>
+      </c>
+      <c r="H262" t="s">
+        <v>78</v>
+      </c>
+      <c r="I262">
+        <v>3</v>
+      </c>
+      <c r="J262" t="s">
+        <v>139</v>
+      </c>
+      <c r="K262" t="s">
+        <v>207</v>
+      </c>
+      <c r="L262">
+        <v>30</v>
+      </c>
+      <c r="M262">
+        <v>144</v>
+      </c>
+      <c r="N262">
+        <v>1345</v>
+      </c>
+      <c r="O262">
+        <v>449</v>
+      </c>
+      <c r="P262">
+        <v>7</v>
+      </c>
+      <c r="Q262">
+        <v>5</v>
+      </c>
+      <c r="R262">
+        <v>6</v>
+      </c>
+      <c r="S262">
+        <v>1</v>
+      </c>
+      <c r="Z262">
+        <v>2</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC262">
+        <v>1.29</v>
+      </c>
+      <c r="AD262">
+        <v>3.75</v>
+      </c>
+      <c r="AE262">
+        <v>1.26</v>
+      </c>
+      <c r="AF262">
+        <v>4.29</v>
+      </c>
+      <c r="AG262">
+        <v>1.32</v>
+      </c>
+      <c r="AH262">
+        <v>4.29</v>
+      </c>
+      <c r="AI262">
+        <v>1.25</v>
+      </c>
+      <c r="AJ262">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D263" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263" t="s">
+        <v>201</v>
+      </c>
+      <c r="G263" t="s">
+        <v>40</v>
+      </c>
+      <c r="H263" t="s">
+        <v>78</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263" t="s">
+        <v>202</v>
+      </c>
+      <c r="L263">
+        <v>7</v>
+      </c>
+      <c r="M263">
+        <v>133</v>
+      </c>
+      <c r="N263">
+        <v>3685</v>
+      </c>
+      <c r="O263">
+        <v>497</v>
+      </c>
+      <c r="P263">
+        <v>7</v>
+      </c>
+      <c r="Q263">
+        <v>6</v>
+      </c>
+      <c r="R263">
+        <v>6</v>
+      </c>
+      <c r="S263">
+        <v>4</v>
+      </c>
+      <c r="Z263">
+        <v>2</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC263">
+        <v>1.2</v>
+      </c>
+      <c r="AD263">
+        <v>4.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.24</v>
+      </c>
+      <c r="AF263">
+        <v>4.59</v>
+      </c>
+      <c r="AG263">
+        <v>1.24</v>
+      </c>
+      <c r="AH263">
+        <v>5.24</v>
+      </c>
+      <c r="AI263">
+        <v>1.2</v>
+      </c>
+      <c r="AJ263">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D264" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264" t="s">
+        <v>201</v>
+      </c>
+      <c r="G264" t="s">
+        <v>40</v>
+      </c>
+      <c r="H264" t="s">
+        <v>78</v>
+      </c>
+      <c r="I264">
+        <v>3</v>
+      </c>
+      <c r="J264" t="s">
+        <v>156</v>
+      </c>
+      <c r="K264" t="s">
+        <v>159</v>
+      </c>
+      <c r="L264">
+        <v>37</v>
+      </c>
+      <c r="M264">
+        <v>76</v>
+      </c>
+      <c r="N264">
+        <v>1154</v>
+      </c>
+      <c r="O264">
+        <v>738</v>
+      </c>
+      <c r="P264">
+        <v>6</v>
+      </c>
+      <c r="Q264">
+        <v>3</v>
+      </c>
+      <c r="R264">
+        <v>6</v>
+      </c>
+      <c r="S264">
+        <v>4</v>
+      </c>
+      <c r="Z264">
+        <v>2</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC264">
+        <v>1.44</v>
+      </c>
+      <c r="AD264">
+        <v>2.75</v>
+      </c>
+      <c r="AE264">
+        <v>1.49</v>
+      </c>
+      <c r="AF264">
+        <v>2.85</v>
+      </c>
+      <c r="AG264">
+        <v>1.52</v>
+      </c>
+      <c r="AH264">
+        <v>2.85</v>
+      </c>
+      <c r="AI264">
+        <v>1.46</v>
+      </c>
+      <c r="AJ264">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>6</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D265" s="2">
+        <v>45325</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265" t="s">
+        <v>201</v>
+      </c>
+      <c r="G265" t="s">
+        <v>40</v>
+      </c>
+      <c r="H265" t="s">
+        <v>79</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+      <c r="J265" t="s">
+        <v>123</v>
+      </c>
+      <c r="K265" t="s">
+        <v>139</v>
+      </c>
+      <c r="L265">
+        <v>27</v>
+      </c>
+      <c r="M265">
+        <v>30</v>
+      </c>
+      <c r="N265">
+        <v>1459</v>
+      </c>
+      <c r="O265">
+        <v>1345</v>
+      </c>
+      <c r="P265">
+        <v>4</v>
+      </c>
+      <c r="Q265">
+        <v>6</v>
+      </c>
+      <c r="R265">
+        <v>6</v>
+      </c>
+      <c r="S265">
+        <v>4</v>
+      </c>
+      <c r="T265">
+        <v>6</v>
+      </c>
+      <c r="U265">
+        <v>4</v>
+      </c>
+      <c r="Z265">
+        <v>2</v>
+      </c>
+      <c r="AA265">
+        <v>1</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC265">
+        <v>2.63</v>
+      </c>
+      <c r="AD265">
+        <v>1.5</v>
+      </c>
+      <c r="AE265">
+        <v>2.62</v>
+      </c>
+      <c r="AF265">
+        <v>1.56</v>
+      </c>
+      <c r="AG265">
+        <v>2.75</v>
+      </c>
+      <c r="AH265">
+        <v>1.56</v>
+      </c>
+      <c r="AI265">
+        <v>2.59</v>
+      </c>
+      <c r="AJ265">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D266" s="2">
+        <v>45325</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266" t="s">
+        <v>201</v>
+      </c>
+      <c r="G266" t="s">
+        <v>40</v>
+      </c>
+      <c r="H266" t="s">
+        <v>79</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266" t="s">
+        <v>156</v>
+      </c>
+      <c r="K266" t="s">
+        <v>49</v>
+      </c>
+      <c r="L266">
+        <v>37</v>
+      </c>
+      <c r="M266">
+        <v>7</v>
+      </c>
+      <c r="N266">
+        <v>1154</v>
+      </c>
+      <c r="O266">
+        <v>3685</v>
+      </c>
+      <c r="P266">
+        <v>6</v>
+      </c>
+      <c r="Q266">
+        <v>3</v>
+      </c>
+      <c r="R266">
+        <v>4</v>
+      </c>
+      <c r="S266">
+        <v>1</v>
+      </c>
+      <c r="Z266">
+        <v>1</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC266">
+        <v>2.75</v>
+      </c>
+      <c r="AD266">
+        <v>1.44</v>
+      </c>
+      <c r="AE266">
+        <v>2.75</v>
+      </c>
+      <c r="AF266">
+        <v>1.52</v>
+      </c>
+      <c r="AG266">
+        <v>2.86</v>
+      </c>
+      <c r="AH266">
+        <v>1.52</v>
+      </c>
+      <c r="AI266">
+        <v>2.71</v>
+      </c>
+      <c r="AJ266">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>6</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D267" s="2">
+        <v>45326</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267" t="s">
+        <v>201</v>
+      </c>
+      <c r="G267" t="s">
+        <v>40</v>
+      </c>
+      <c r="H267" t="s">
+        <v>80</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" t="s">
+        <v>123</v>
+      </c>
+      <c r="K267" t="s">
+        <v>156</v>
+      </c>
+      <c r="L267">
+        <v>27</v>
+      </c>
+      <c r="M267">
+        <v>37</v>
+      </c>
+      <c r="N267">
+        <v>1459</v>
+      </c>
+      <c r="O267">
+        <v>1154</v>
+      </c>
+      <c r="P267">
+        <v>5</v>
+      </c>
+      <c r="Q267">
+        <v>7</v>
+      </c>
+      <c r="R267">
+        <v>6</v>
+      </c>
+      <c r="S267">
+        <v>2</v>
+      </c>
+      <c r="T267">
+        <v>6</v>
+      </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
+      <c r="Z267">
+        <v>2</v>
+      </c>
+      <c r="AA267">
+        <v>1</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC267">
+        <v>2</v>
+      </c>
+      <c r="AD267">
+        <v>1.8</v>
+      </c>
+      <c r="AE267">
+        <v>2.06</v>
+      </c>
+      <c r="AF267">
+        <v>1.85</v>
+      </c>
+      <c r="AG267">
+        <v>2.06</v>
+      </c>
+      <c r="AH267">
+        <v>1.91</v>
+      </c>
+      <c r="AI267">
+        <v>1.98</v>
+      </c>
+      <c r="AJ267">
+        <v>1.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archive/tournoments_2024.xlsx
+++ b/archive/tournoments_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee16c21b72f3fde9/Documents/Internet/tennis-data/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5CCE082C-E7FE-4FB2-924E-9E04C25B1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF112E8E-16E8-4B5C-9417-C88B65A44741}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5CCE082C-E7FE-4FB2-924E-9E04C25B1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA44DF7-981C-4AA2-AB72-CC80078461A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB451EE0-1C45-4E3B-8988-DF9692D1A74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="275">
   <si>
     <t>ATP</t>
   </si>
@@ -835,6 +835,33 @@
   <si>
     <t>Fonseca J.</t>
   </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t>Abierto Mexicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubai </t>
+  </si>
+  <si>
+    <t>Dubai Tennis Championships</t>
+  </si>
+  <si>
+    <t>Awarded</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Chile Open</t>
+  </si>
+  <si>
+    <t>Passaro F.</t>
+  </si>
+  <si>
+    <t>Molcan A.</t>
+  </si>
 </sst>
 </file>
 
@@ -902,9 +929,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,7 +969,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1048,7 +1075,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1190,7 +1217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1198,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155D0E9E-0A55-4076-9395-03276EB23156}">
-  <dimension ref="A1:AJ518"/>
+  <dimension ref="A1:AJ607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D573" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A518" sqref="A518"/>
+      <selection pane="bottomRight" activeCell="A607" sqref="A607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -53267,6 +53294,8446 @@
         <v>3</v>
       </c>
     </row>
+    <row r="519" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>16</v>
+      </c>
+      <c r="B519" t="s">
+        <v>266</v>
+      </c>
+      <c r="C519" t="s">
+        <v>267</v>
+      </c>
+      <c r="D519" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E519" t="s">
+        <v>250</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G519" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H519" t="s">
+        <v>41</v>
+      </c>
+      <c r="I519">
+        <v>3</v>
+      </c>
+      <c r="J519" t="s">
+        <v>48</v>
+      </c>
+      <c r="K519" t="s">
+        <v>125</v>
+      </c>
+      <c r="L519">
+        <v>17</v>
+      </c>
+      <c r="M519">
+        <v>41</v>
+      </c>
+      <c r="N519">
+        <v>2055</v>
+      </c>
+      <c r="O519">
+        <v>1066</v>
+      </c>
+      <c r="P519">
+        <v>2</v>
+      </c>
+      <c r="Q519">
+        <v>6</v>
+      </c>
+      <c r="R519">
+        <v>7</v>
+      </c>
+      <c r="S519">
+        <v>5</v>
+      </c>
+      <c r="T519">
+        <v>7</v>
+      </c>
+      <c r="U519">
+        <v>6</v>
+      </c>
+      <c r="Z519">
+        <v>2</v>
+      </c>
+      <c r="AA519">
+        <v>1</v>
+      </c>
+      <c r="AB519" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC519">
+        <v>1.36</v>
+      </c>
+      <c r="AD519">
+        <v>3.2</v>
+      </c>
+      <c r="AE519">
+        <v>1.39</v>
+      </c>
+      <c r="AF519">
+        <v>3.22</v>
+      </c>
+      <c r="AG519">
+        <v>1.4</v>
+      </c>
+      <c r="AH519">
+        <v>3.4</v>
+      </c>
+      <c r="AI519">
+        <v>1.36</v>
+      </c>
+      <c r="AJ519">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="520" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>16</v>
+      </c>
+      <c r="B520" t="s">
+        <v>266</v>
+      </c>
+      <c r="C520" t="s">
+        <v>267</v>
+      </c>
+      <c r="D520" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E520" t="s">
+        <v>250</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H520" t="s">
+        <v>41</v>
+      </c>
+      <c r="I520">
+        <v>3</v>
+      </c>
+      <c r="J520" t="s">
+        <v>91</v>
+      </c>
+      <c r="K520" t="s">
+        <v>222</v>
+      </c>
+      <c r="L520">
+        <v>53</v>
+      </c>
+      <c r="M520">
+        <v>117</v>
+      </c>
+      <c r="N520">
+        <v>940</v>
+      </c>
+      <c r="O520">
+        <v>538</v>
+      </c>
+      <c r="P520">
+        <v>4</v>
+      </c>
+      <c r="Q520">
+        <v>6</v>
+      </c>
+      <c r="R520">
+        <v>6</v>
+      </c>
+      <c r="S520">
+        <v>3</v>
+      </c>
+      <c r="T520">
+        <v>6</v>
+      </c>
+      <c r="U520">
+        <v>1</v>
+      </c>
+      <c r="Z520">
+        <v>2</v>
+      </c>
+      <c r="AA520">
+        <v>1</v>
+      </c>
+      <c r="AB520" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC520">
+        <v>1.4</v>
+      </c>
+      <c r="AD520">
+        <v>3</v>
+      </c>
+      <c r="AE520">
+        <v>1.44</v>
+      </c>
+      <c r="AF520">
+        <v>2.98</v>
+      </c>
+      <c r="AG520">
+        <v>1.45</v>
+      </c>
+      <c r="AH520">
+        <v>3</v>
+      </c>
+      <c r="AI520">
+        <v>1.42</v>
+      </c>
+      <c r="AJ520">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="521" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>16</v>
+      </c>
+      <c r="B521" t="s">
+        <v>266</v>
+      </c>
+      <c r="C521" t="s">
+        <v>267</v>
+      </c>
+      <c r="D521" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E521" t="s">
+        <v>250</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G521" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H521" t="s">
+        <v>41</v>
+      </c>
+      <c r="I521">
+        <v>3</v>
+      </c>
+      <c r="J521" t="s">
+        <v>113</v>
+      </c>
+      <c r="K521" t="s">
+        <v>127</v>
+      </c>
+      <c r="L521">
+        <v>50</v>
+      </c>
+      <c r="M521">
+        <v>14</v>
+      </c>
+      <c r="N521">
+        <v>951</v>
+      </c>
+      <c r="O521">
+        <v>2375</v>
+      </c>
+      <c r="P521">
+        <v>6</v>
+      </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
+      <c r="R521">
+        <v>6</v>
+      </c>
+      <c r="S521">
+        <v>4</v>
+      </c>
+      <c r="Z521">
+        <v>2</v>
+      </c>
+      <c r="AA521">
+        <v>0</v>
+      </c>
+      <c r="AB521" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC521">
+        <v>2.1</v>
+      </c>
+      <c r="AD521">
+        <v>1.73</v>
+      </c>
+      <c r="AE521">
+        <v>2.15</v>
+      </c>
+      <c r="AF521">
+        <v>1.78</v>
+      </c>
+      <c r="AG521">
+        <v>2.15</v>
+      </c>
+      <c r="AH521">
+        <v>1.8</v>
+      </c>
+      <c r="AI521">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AJ521">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="522" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>16</v>
+      </c>
+      <c r="B522" t="s">
+        <v>266</v>
+      </c>
+      <c r="C522" t="s">
+        <v>267</v>
+      </c>
+      <c r="D522" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E522" t="s">
+        <v>250</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G522" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H522" t="s">
+        <v>41</v>
+      </c>
+      <c r="I522">
+        <v>3</v>
+      </c>
+      <c r="J522" t="s">
+        <v>95</v>
+      </c>
+      <c r="K522" t="s">
+        <v>257</v>
+      </c>
+      <c r="L522">
+        <v>37</v>
+      </c>
+      <c r="M522">
+        <v>493</v>
+      </c>
+      <c r="N522">
+        <v>1091</v>
+      </c>
+      <c r="O522">
+        <v>82</v>
+      </c>
+      <c r="P522">
+        <v>6</v>
+      </c>
+      <c r="Q522">
+        <v>7</v>
+      </c>
+      <c r="R522">
+        <v>6</v>
+      </c>
+      <c r="S522">
+        <v>4</v>
+      </c>
+      <c r="T522">
+        <v>7</v>
+      </c>
+      <c r="U522">
+        <v>6</v>
+      </c>
+      <c r="Z522">
+        <v>2</v>
+      </c>
+      <c r="AA522">
+        <v>1</v>
+      </c>
+      <c r="AB522" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC522">
+        <v>1.33</v>
+      </c>
+      <c r="AD522">
+        <v>3.4</v>
+      </c>
+      <c r="AE522">
+        <v>1.36</v>
+      </c>
+      <c r="AF522">
+        <v>3.43</v>
+      </c>
+      <c r="AG522">
+        <v>1.36</v>
+      </c>
+      <c r="AH522">
+        <v>3.55</v>
+      </c>
+      <c r="AI522">
+        <v>1.31</v>
+      </c>
+      <c r="AJ522">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="523" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>16</v>
+      </c>
+      <c r="B523" t="s">
+        <v>266</v>
+      </c>
+      <c r="C523" t="s">
+        <v>267</v>
+      </c>
+      <c r="D523" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E523" t="s">
+        <v>250</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G523" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H523" t="s">
+        <v>41</v>
+      </c>
+      <c r="I523">
+        <v>3</v>
+      </c>
+      <c r="J523" t="s">
+        <v>191</v>
+      </c>
+      <c r="K523" t="s">
+        <v>86</v>
+      </c>
+      <c r="L523">
+        <v>82</v>
+      </c>
+      <c r="M523">
+        <v>56</v>
+      </c>
+      <c r="N523">
+        <v>725</v>
+      </c>
+      <c r="O523">
+        <v>922</v>
+      </c>
+      <c r="P523">
+        <v>3</v>
+      </c>
+      <c r="Q523">
+        <v>6</v>
+      </c>
+      <c r="R523">
+        <v>6</v>
+      </c>
+      <c r="S523">
+        <v>2</v>
+      </c>
+      <c r="T523">
+        <v>6</v>
+      </c>
+      <c r="U523">
+        <v>4</v>
+      </c>
+      <c r="Z523">
+        <v>2</v>
+      </c>
+      <c r="AA523">
+        <v>1</v>
+      </c>
+      <c r="AB523" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC523">
+        <v>2.38</v>
+      </c>
+      <c r="AD523">
+        <v>1.57</v>
+      </c>
+      <c r="AE523">
+        <v>2.41</v>
+      </c>
+      <c r="AF523">
+        <v>1.63</v>
+      </c>
+      <c r="AG523">
+        <v>2.41</v>
+      </c>
+      <c r="AH523">
+        <v>1.67</v>
+      </c>
+      <c r="AI523">
+        <v>2.29</v>
+      </c>
+      <c r="AJ523">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>16</v>
+      </c>
+      <c r="B524" t="s">
+        <v>266</v>
+      </c>
+      <c r="C524" t="s">
+        <v>267</v>
+      </c>
+      <c r="D524" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E524" t="s">
+        <v>250</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G524" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H524" t="s">
+        <v>41</v>
+      </c>
+      <c r="I524">
+        <v>3</v>
+      </c>
+      <c r="J524" t="s">
+        <v>177</v>
+      </c>
+      <c r="K524" t="s">
+        <v>92</v>
+      </c>
+      <c r="L524">
+        <v>9</v>
+      </c>
+      <c r="M524">
+        <v>64</v>
+      </c>
+      <c r="N524">
+        <v>3210</v>
+      </c>
+      <c r="O524">
+        <v>870</v>
+      </c>
+      <c r="P524">
+        <v>6</v>
+      </c>
+      <c r="Q524">
+        <v>2</v>
+      </c>
+      <c r="R524">
+        <v>6</v>
+      </c>
+      <c r="S524">
+        <v>1</v>
+      </c>
+      <c r="Z524">
+        <v>2</v>
+      </c>
+      <c r="AA524">
+        <v>0</v>
+      </c>
+      <c r="AB524" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC524">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD524">
+        <v>6</v>
+      </c>
+      <c r="AE524">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AF524">
+        <v>7.6</v>
+      </c>
+      <c r="AG524">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AH524">
+        <v>7.6</v>
+      </c>
+      <c r="AI524">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AJ524">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="525" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>16</v>
+      </c>
+      <c r="B525" t="s">
+        <v>266</v>
+      </c>
+      <c r="C525" t="s">
+        <v>267</v>
+      </c>
+      <c r="D525" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E525" t="s">
+        <v>250</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G525" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H525" t="s">
+        <v>41</v>
+      </c>
+      <c r="I525">
+        <v>3</v>
+      </c>
+      <c r="J525" t="s">
+        <v>68</v>
+      </c>
+      <c r="K525" t="s">
+        <v>150</v>
+      </c>
+      <c r="L525">
+        <v>42</v>
+      </c>
+      <c r="M525">
+        <v>10</v>
+      </c>
+      <c r="N525">
+        <v>1061</v>
+      </c>
+      <c r="O525">
+        <v>3150</v>
+      </c>
+      <c r="P525">
+        <v>6</v>
+      </c>
+      <c r="Q525">
+        <v>4</v>
+      </c>
+      <c r="R525">
+        <v>4</v>
+      </c>
+      <c r="S525">
+        <v>6</v>
+      </c>
+      <c r="T525">
+        <v>6</v>
+      </c>
+      <c r="U525">
+        <v>3</v>
+      </c>
+      <c r="Z525">
+        <v>2</v>
+      </c>
+      <c r="AA525">
+        <v>1</v>
+      </c>
+      <c r="AB525" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC525">
+        <v>5</v>
+      </c>
+      <c r="AD525">
+        <v>1.17</v>
+      </c>
+      <c r="AE525">
+        <v>5.28</v>
+      </c>
+      <c r="AF525">
+        <v>1.19</v>
+      </c>
+      <c r="AG525">
+        <v>5.28</v>
+      </c>
+      <c r="AH525">
+        <v>1.2</v>
+      </c>
+      <c r="AI525">
+        <v>4.88</v>
+      </c>
+      <c r="AJ525">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="526" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>16</v>
+      </c>
+      <c r="B526" t="s">
+        <v>266</v>
+      </c>
+      <c r="C526" t="s">
+        <v>267</v>
+      </c>
+      <c r="D526" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E526" t="s">
+        <v>250</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G526" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H526" t="s">
+        <v>41</v>
+      </c>
+      <c r="I526">
+        <v>3</v>
+      </c>
+      <c r="J526" t="s">
+        <v>159</v>
+      </c>
+      <c r="K526" t="s">
+        <v>139</v>
+      </c>
+      <c r="L526">
+        <v>69</v>
+      </c>
+      <c r="M526">
+        <v>30</v>
+      </c>
+      <c r="N526">
+        <v>825</v>
+      </c>
+      <c r="O526">
+        <v>1340</v>
+      </c>
+      <c r="P526">
+        <v>2</v>
+      </c>
+      <c r="Q526">
+        <v>6</v>
+      </c>
+      <c r="R526">
+        <v>6</v>
+      </c>
+      <c r="S526">
+        <v>3</v>
+      </c>
+      <c r="T526">
+        <v>6</v>
+      </c>
+      <c r="U526">
+        <v>2</v>
+      </c>
+      <c r="Z526">
+        <v>2</v>
+      </c>
+      <c r="AA526">
+        <v>1</v>
+      </c>
+      <c r="AB526" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC526">
+        <v>3</v>
+      </c>
+      <c r="AD526">
+        <v>1.4</v>
+      </c>
+      <c r="AE526">
+        <v>3.32</v>
+      </c>
+      <c r="AF526">
+        <v>1.37</v>
+      </c>
+      <c r="AG526">
+        <v>3.5</v>
+      </c>
+      <c r="AH526">
+        <v>1.4</v>
+      </c>
+      <c r="AI526">
+        <v>3.08</v>
+      </c>
+      <c r="AJ526">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="527" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>16</v>
+      </c>
+      <c r="B527" t="s">
+        <v>266</v>
+      </c>
+      <c r="C527" t="s">
+        <v>267</v>
+      </c>
+      <c r="D527" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E527" t="s">
+        <v>250</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G527" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H527" t="s">
+        <v>41</v>
+      </c>
+      <c r="I527">
+        <v>3</v>
+      </c>
+      <c r="J527" t="s">
+        <v>107</v>
+      </c>
+      <c r="K527" t="s">
+        <v>50</v>
+      </c>
+      <c r="L527">
+        <v>16</v>
+      </c>
+      <c r="M527">
+        <v>62</v>
+      </c>
+      <c r="N527">
+        <v>2155</v>
+      </c>
+      <c r="O527">
+        <v>886</v>
+      </c>
+      <c r="P527">
+        <v>4</v>
+      </c>
+      <c r="Q527">
+        <v>6</v>
+      </c>
+      <c r="R527">
+        <v>6</v>
+      </c>
+      <c r="S527">
+        <v>3</v>
+      </c>
+      <c r="T527">
+        <v>6</v>
+      </c>
+      <c r="U527">
+        <v>0</v>
+      </c>
+      <c r="Z527">
+        <v>2</v>
+      </c>
+      <c r="AA527">
+        <v>1</v>
+      </c>
+      <c r="AB527" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC527">
+        <v>1.36</v>
+      </c>
+      <c r="AD527">
+        <v>3.2</v>
+      </c>
+      <c r="AE527">
+        <v>1.39</v>
+      </c>
+      <c r="AF527">
+        <v>3.22</v>
+      </c>
+      <c r="AG527">
+        <v>1.4</v>
+      </c>
+      <c r="AH527">
+        <v>3.22</v>
+      </c>
+      <c r="AI527">
+        <v>1.36</v>
+      </c>
+      <c r="AJ527">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="528" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>16</v>
+      </c>
+      <c r="B528" t="s">
+        <v>266</v>
+      </c>
+      <c r="C528" t="s">
+        <v>267</v>
+      </c>
+      <c r="D528" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E528" t="s">
+        <v>250</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H528" t="s">
+        <v>41</v>
+      </c>
+      <c r="I528">
+        <v>3</v>
+      </c>
+      <c r="J528" t="s">
+        <v>195</v>
+      </c>
+      <c r="K528" t="s">
+        <v>162</v>
+      </c>
+      <c r="L528">
+        <v>58</v>
+      </c>
+      <c r="M528">
+        <v>146</v>
+      </c>
+      <c r="N528">
+        <v>918</v>
+      </c>
+      <c r="O528">
+        <v>453</v>
+      </c>
+      <c r="P528">
+        <v>6</v>
+      </c>
+      <c r="Q528">
+        <v>4</v>
+      </c>
+      <c r="R528">
+        <v>4</v>
+      </c>
+      <c r="S528">
+        <v>6</v>
+      </c>
+      <c r="T528">
+        <v>6</v>
+      </c>
+      <c r="U528">
+        <v>0</v>
+      </c>
+      <c r="Z528">
+        <v>2</v>
+      </c>
+      <c r="AA528">
+        <v>1</v>
+      </c>
+      <c r="AB528" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC528">
+        <v>1.44</v>
+      </c>
+      <c r="AD528">
+        <v>2.75</v>
+      </c>
+      <c r="AE528">
+        <v>1.51</v>
+      </c>
+      <c r="AF528">
+        <v>2.74</v>
+      </c>
+      <c r="AG528">
+        <v>1.53</v>
+      </c>
+      <c r="AH528">
+        <v>2.78</v>
+      </c>
+      <c r="AI528">
+        <v>1.48</v>
+      </c>
+      <c r="AJ528">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>16</v>
+      </c>
+      <c r="B529" t="s">
+        <v>266</v>
+      </c>
+      <c r="C529" t="s">
+        <v>267</v>
+      </c>
+      <c r="D529" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E529" t="s">
+        <v>250</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G529" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H529" t="s">
+        <v>41</v>
+      </c>
+      <c r="I529">
+        <v>3</v>
+      </c>
+      <c r="J529" t="s">
+        <v>168</v>
+      </c>
+      <c r="K529" t="s">
+        <v>47</v>
+      </c>
+      <c r="L529">
+        <v>12</v>
+      </c>
+      <c r="M529">
+        <v>39</v>
+      </c>
+      <c r="N529">
+        <v>3080</v>
+      </c>
+      <c r="O529">
+        <v>1080</v>
+      </c>
+      <c r="P529">
+        <v>6</v>
+      </c>
+      <c r="Q529">
+        <v>3</v>
+      </c>
+      <c r="R529">
+        <v>6</v>
+      </c>
+      <c r="S529">
+        <v>4</v>
+      </c>
+      <c r="Z529">
+        <v>2</v>
+      </c>
+      <c r="AA529">
+        <v>0</v>
+      </c>
+      <c r="AB529" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC529">
+        <v>1.4</v>
+      </c>
+      <c r="AD529">
+        <v>3</v>
+      </c>
+      <c r="AE529">
+        <v>1.4</v>
+      </c>
+      <c r="AF529">
+        <v>3.18</v>
+      </c>
+      <c r="AG529">
+        <v>1.45</v>
+      </c>
+      <c r="AH529">
+        <v>3.18</v>
+      </c>
+      <c r="AI529">
+        <v>1.4</v>
+      </c>
+      <c r="AJ529">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>16</v>
+      </c>
+      <c r="B530" t="s">
+        <v>266</v>
+      </c>
+      <c r="C530" t="s">
+        <v>267</v>
+      </c>
+      <c r="D530" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E530" t="s">
+        <v>250</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G530" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H530" t="s">
+        <v>41</v>
+      </c>
+      <c r="I530">
+        <v>3</v>
+      </c>
+      <c r="J530" t="s">
+        <v>49</v>
+      </c>
+      <c r="K530" t="s">
+        <v>202</v>
+      </c>
+      <c r="L530">
+        <v>7</v>
+      </c>
+      <c r="M530">
+        <v>122</v>
+      </c>
+      <c r="N530">
+        <v>3700</v>
+      </c>
+      <c r="O530">
+        <v>527</v>
+      </c>
+      <c r="P530">
+        <v>6</v>
+      </c>
+      <c r="Q530">
+        <v>2</v>
+      </c>
+      <c r="R530">
+        <v>6</v>
+      </c>
+      <c r="S530">
+        <v>3</v>
+      </c>
+      <c r="Z530">
+        <v>2</v>
+      </c>
+      <c r="AA530">
+        <v>0</v>
+      </c>
+      <c r="AB530" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC530">
+        <v>1.33</v>
+      </c>
+      <c r="AD530">
+        <v>3.4</v>
+      </c>
+      <c r="AE530">
+        <v>1.35</v>
+      </c>
+      <c r="AF530">
+        <v>3.5</v>
+      </c>
+      <c r="AG530">
+        <v>1.35</v>
+      </c>
+      <c r="AH530">
+        <v>3.6</v>
+      </c>
+      <c r="AI530">
+        <v>1.31</v>
+      </c>
+      <c r="AJ530">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="531" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>16</v>
+      </c>
+      <c r="B531" t="s">
+        <v>266</v>
+      </c>
+      <c r="C531" t="s">
+        <v>267</v>
+      </c>
+      <c r="D531" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E531" t="s">
+        <v>250</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G531" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H531" t="s">
+        <v>41</v>
+      </c>
+      <c r="I531">
+        <v>3</v>
+      </c>
+      <c r="J531" t="s">
+        <v>187</v>
+      </c>
+      <c r="K531" t="s">
+        <v>132</v>
+      </c>
+      <c r="L531">
+        <v>11</v>
+      </c>
+      <c r="M531">
+        <v>34</v>
+      </c>
+      <c r="N531">
+        <v>3120</v>
+      </c>
+      <c r="O531">
+        <v>1234</v>
+      </c>
+      <c r="P531">
+        <v>6</v>
+      </c>
+      <c r="Q531">
+        <v>4</v>
+      </c>
+      <c r="R531">
+        <v>6</v>
+      </c>
+      <c r="S531">
+        <v>7</v>
+      </c>
+      <c r="T531">
+        <v>6</v>
+      </c>
+      <c r="U531">
+        <v>3</v>
+      </c>
+      <c r="Z531">
+        <v>2</v>
+      </c>
+      <c r="AA531">
+        <v>1</v>
+      </c>
+      <c r="AB531" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC531">
+        <v>1.17</v>
+      </c>
+      <c r="AD531">
+        <v>5</v>
+      </c>
+      <c r="AE531">
+        <v>1.2</v>
+      </c>
+      <c r="AF531">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG531">
+        <v>1.22</v>
+      </c>
+      <c r="AH531">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI531">
+        <v>1.18</v>
+      </c>
+      <c r="AJ531">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="532" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>16</v>
+      </c>
+      <c r="B532" t="s">
+        <v>266</v>
+      </c>
+      <c r="C532" t="s">
+        <v>267</v>
+      </c>
+      <c r="D532" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E532" t="s">
+        <v>250</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G532" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H532" t="s">
+        <v>41</v>
+      </c>
+      <c r="I532">
+        <v>3</v>
+      </c>
+      <c r="J532" t="s">
+        <v>171</v>
+      </c>
+      <c r="K532" t="s">
+        <v>63</v>
+      </c>
+      <c r="L532">
+        <v>93</v>
+      </c>
+      <c r="M532">
+        <v>32</v>
+      </c>
+      <c r="N532">
+        <v>654</v>
+      </c>
+      <c r="O532">
+        <v>1246</v>
+      </c>
+      <c r="P532">
+        <v>6</v>
+      </c>
+      <c r="Q532">
+        <v>3</v>
+      </c>
+      <c r="R532">
+        <v>5</v>
+      </c>
+      <c r="S532">
+        <v>7</v>
+      </c>
+      <c r="T532">
+        <v>6</v>
+      </c>
+      <c r="U532">
+        <v>4</v>
+      </c>
+      <c r="Z532">
+        <v>2</v>
+      </c>
+      <c r="AA532">
+        <v>1</v>
+      </c>
+      <c r="AB532" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC532">
+        <v>2.5</v>
+      </c>
+      <c r="AD532">
+        <v>1.53</v>
+      </c>
+      <c r="AE532">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AF532">
+        <v>1.57</v>
+      </c>
+      <c r="AG532">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AH532">
+        <v>1.57</v>
+      </c>
+      <c r="AI532">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AJ532">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="533" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>16</v>
+      </c>
+      <c r="B533" t="s">
+        <v>266</v>
+      </c>
+      <c r="C533" t="s">
+        <v>267</v>
+      </c>
+      <c r="D533" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E533" t="s">
+        <v>250</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G533" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H533" t="s">
+        <v>41</v>
+      </c>
+      <c r="I533">
+        <v>3</v>
+      </c>
+      <c r="J533" t="s">
+        <v>59</v>
+      </c>
+      <c r="K533" t="s">
+        <v>194</v>
+      </c>
+      <c r="L533">
+        <v>57</v>
+      </c>
+      <c r="M533">
+        <v>6</v>
+      </c>
+      <c r="N533">
+        <v>921</v>
+      </c>
+      <c r="O533">
+        <v>5085</v>
+      </c>
+      <c r="P533">
+        <v>6</v>
+      </c>
+      <c r="Q533">
+        <v>3</v>
+      </c>
+      <c r="R533">
+        <v>3</v>
+      </c>
+      <c r="S533">
+        <v>6</v>
+      </c>
+      <c r="T533">
+        <v>6</v>
+      </c>
+      <c r="U533">
+        <v>3</v>
+      </c>
+      <c r="Z533">
+        <v>2</v>
+      </c>
+      <c r="AA533">
+        <v>1</v>
+      </c>
+      <c r="AB533" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC533">
+        <v>10</v>
+      </c>
+      <c r="AD533">
+        <v>1.06</v>
+      </c>
+      <c r="AE533">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="AF533">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG533">
+        <v>10</v>
+      </c>
+      <c r="AH533">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI533">
+        <v>7.4</v>
+      </c>
+      <c r="AJ533">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="534" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>16</v>
+      </c>
+      <c r="B534" t="s">
+        <v>266</v>
+      </c>
+      <c r="C534" t="s">
+        <v>267</v>
+      </c>
+      <c r="D534" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E534" t="s">
+        <v>250</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G534" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H534" t="s">
+        <v>41</v>
+      </c>
+      <c r="I534">
+        <v>3</v>
+      </c>
+      <c r="J534" t="s">
+        <v>114</v>
+      </c>
+      <c r="K534" t="s">
+        <v>258</v>
+      </c>
+      <c r="L534">
+        <v>55</v>
+      </c>
+      <c r="M534">
+        <v>700</v>
+      </c>
+      <c r="N534">
+        <v>922</v>
+      </c>
+      <c r="O534">
+        <v>40</v>
+      </c>
+      <c r="P534">
+        <v>6</v>
+      </c>
+      <c r="Q534">
+        <v>2</v>
+      </c>
+      <c r="R534">
+        <v>6</v>
+      </c>
+      <c r="S534">
+        <v>2</v>
+      </c>
+      <c r="Z534">
+        <v>2</v>
+      </c>
+      <c r="AA534">
+        <v>0</v>
+      </c>
+      <c r="AB534" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC534">
+        <v>1.2</v>
+      </c>
+      <c r="AD534">
+        <v>4.5</v>
+      </c>
+      <c r="AE534">
+        <v>1.25</v>
+      </c>
+      <c r="AF534">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AG534">
+        <v>1.25</v>
+      </c>
+      <c r="AH534">
+        <v>4.54</v>
+      </c>
+      <c r="AI534">
+        <v>1.21</v>
+      </c>
+      <c r="AJ534">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="535" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>16</v>
+      </c>
+      <c r="B535" t="s">
+        <v>266</v>
+      </c>
+      <c r="C535" t="s">
+        <v>267</v>
+      </c>
+      <c r="D535" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E535" t="s">
+        <v>250</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G535" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H535" t="s">
+        <v>76</v>
+      </c>
+      <c r="I535">
+        <v>3</v>
+      </c>
+      <c r="J535" t="s">
+        <v>177</v>
+      </c>
+      <c r="K535" t="s">
+        <v>95</v>
+      </c>
+      <c r="L535">
+        <v>9</v>
+      </c>
+      <c r="M535">
+        <v>37</v>
+      </c>
+      <c r="N535">
+        <v>3210</v>
+      </c>
+      <c r="O535">
+        <v>1091</v>
+      </c>
+      <c r="P535">
+        <v>6</v>
+      </c>
+      <c r="Q535">
+        <v>1</v>
+      </c>
+      <c r="R535">
+        <v>6</v>
+      </c>
+      <c r="S535">
+        <v>3</v>
+      </c>
+      <c r="Z535">
+        <v>2</v>
+      </c>
+      <c r="AA535">
+        <v>0</v>
+      </c>
+      <c r="AB535" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC535">
+        <v>1.08</v>
+      </c>
+      <c r="AD535">
+        <v>8</v>
+      </c>
+      <c r="AE535">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AF535">
+        <v>7.88</v>
+      </c>
+      <c r="AG535">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AH535">
+        <v>8.01</v>
+      </c>
+      <c r="AI535">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AJ535">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="536" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>16</v>
+      </c>
+      <c r="B536" t="s">
+        <v>266</v>
+      </c>
+      <c r="C536" t="s">
+        <v>267</v>
+      </c>
+      <c r="D536" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E536" t="s">
+        <v>250</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G536" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H536" t="s">
+        <v>76</v>
+      </c>
+      <c r="I536">
+        <v>3</v>
+      </c>
+      <c r="J536" t="s">
+        <v>113</v>
+      </c>
+      <c r="K536" t="s">
+        <v>191</v>
+      </c>
+      <c r="L536">
+        <v>50</v>
+      </c>
+      <c r="M536">
+        <v>82</v>
+      </c>
+      <c r="N536">
+        <v>951</v>
+      </c>
+      <c r="O536">
+        <v>725</v>
+      </c>
+      <c r="P536">
+        <v>6</v>
+      </c>
+      <c r="Q536">
+        <v>3</v>
+      </c>
+      <c r="R536">
+        <v>6</v>
+      </c>
+      <c r="S536">
+        <v>0</v>
+      </c>
+      <c r="Z536">
+        <v>2</v>
+      </c>
+      <c r="AA536">
+        <v>0</v>
+      </c>
+      <c r="AB536" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC536">
+        <v>1.2</v>
+      </c>
+      <c r="AD536">
+        <v>4.5</v>
+      </c>
+      <c r="AE536">
+        <v>1.25</v>
+      </c>
+      <c r="AF536">
+        <v>4.45</v>
+      </c>
+      <c r="AG536">
+        <v>1.25</v>
+      </c>
+      <c r="AH536">
+        <v>4.5</v>
+      </c>
+      <c r="AI536">
+        <v>1.22</v>
+      </c>
+      <c r="AJ536">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>16</v>
+      </c>
+      <c r="B537" t="s">
+        <v>266</v>
+      </c>
+      <c r="C537" t="s">
+        <v>267</v>
+      </c>
+      <c r="D537" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E537" t="s">
+        <v>250</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G537" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H537" t="s">
+        <v>76</v>
+      </c>
+      <c r="I537">
+        <v>3</v>
+      </c>
+      <c r="J537" t="s">
+        <v>195</v>
+      </c>
+      <c r="K537" t="s">
+        <v>107</v>
+      </c>
+      <c r="L537">
+        <v>58</v>
+      </c>
+      <c r="M537">
+        <v>16</v>
+      </c>
+      <c r="N537">
+        <v>918</v>
+      </c>
+      <c r="O537">
+        <v>2155</v>
+      </c>
+      <c r="P537">
+        <v>6</v>
+      </c>
+      <c r="Q537">
+        <v>4</v>
+      </c>
+      <c r="R537">
+        <v>5</v>
+      </c>
+      <c r="S537">
+        <v>7</v>
+      </c>
+      <c r="T537">
+        <v>6</v>
+      </c>
+      <c r="U537">
+        <v>1</v>
+      </c>
+      <c r="Z537">
+        <v>2</v>
+      </c>
+      <c r="AA537">
+        <v>1</v>
+      </c>
+      <c r="AB537" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC537">
+        <v>2.63</v>
+      </c>
+      <c r="AD537">
+        <v>1.5</v>
+      </c>
+      <c r="AE537">
+        <v>2.58</v>
+      </c>
+      <c r="AF537">
+        <v>1.57</v>
+      </c>
+      <c r="AG537">
+        <v>2.79</v>
+      </c>
+      <c r="AH537">
+        <v>1.62</v>
+      </c>
+      <c r="AI537">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AJ537">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="538" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>16</v>
+      </c>
+      <c r="B538" t="s">
+        <v>266</v>
+      </c>
+      <c r="C538" t="s">
+        <v>267</v>
+      </c>
+      <c r="D538" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E538" t="s">
+        <v>250</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G538" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H538" t="s">
+        <v>76</v>
+      </c>
+      <c r="I538">
+        <v>3</v>
+      </c>
+      <c r="J538" t="s">
+        <v>91</v>
+      </c>
+      <c r="K538" t="s">
+        <v>59</v>
+      </c>
+      <c r="L538">
+        <v>53</v>
+      </c>
+      <c r="M538">
+        <v>57</v>
+      </c>
+      <c r="N538">
+        <v>940</v>
+      </c>
+      <c r="O538">
+        <v>921</v>
+      </c>
+      <c r="P538">
+        <v>6</v>
+      </c>
+      <c r="Q538">
+        <v>4</v>
+      </c>
+      <c r="R538">
+        <v>6</v>
+      </c>
+      <c r="S538">
+        <v>4</v>
+      </c>
+      <c r="Z538">
+        <v>2</v>
+      </c>
+      <c r="AA538">
+        <v>0</v>
+      </c>
+      <c r="AB538" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC538">
+        <v>1.57</v>
+      </c>
+      <c r="AD538">
+        <v>2.38</v>
+      </c>
+      <c r="AE538">
+        <v>1.64</v>
+      </c>
+      <c r="AF538">
+        <v>2.41</v>
+      </c>
+      <c r="AG538">
+        <v>1.64</v>
+      </c>
+      <c r="AH538">
+        <v>2.5</v>
+      </c>
+      <c r="AI538">
+        <v>1.57</v>
+      </c>
+      <c r="AJ538">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="539" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>16</v>
+      </c>
+      <c r="B539" t="s">
+        <v>266</v>
+      </c>
+      <c r="C539" t="s">
+        <v>267</v>
+      </c>
+      <c r="D539" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E539" t="s">
+        <v>250</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G539" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H539" t="s">
+        <v>76</v>
+      </c>
+      <c r="I539">
+        <v>3</v>
+      </c>
+      <c r="J539" t="s">
+        <v>168</v>
+      </c>
+      <c r="K539" t="s">
+        <v>159</v>
+      </c>
+      <c r="L539">
+        <v>12</v>
+      </c>
+      <c r="M539">
+        <v>69</v>
+      </c>
+      <c r="N539">
+        <v>3080</v>
+      </c>
+      <c r="O539">
+        <v>825</v>
+      </c>
+      <c r="P539">
+        <v>6</v>
+      </c>
+      <c r="Q539">
+        <v>3</v>
+      </c>
+      <c r="R539">
+        <v>7</v>
+      </c>
+      <c r="S539">
+        <v>6</v>
+      </c>
+      <c r="Z539">
+        <v>2</v>
+      </c>
+      <c r="AA539">
+        <v>0</v>
+      </c>
+      <c r="AB539" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC539">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD539">
+        <v>5.5</v>
+      </c>
+      <c r="AE539">
+        <v>1.18</v>
+      </c>
+      <c r="AF539">
+        <v>5.67</v>
+      </c>
+      <c r="AG539">
+        <v>1.18</v>
+      </c>
+      <c r="AH539">
+        <v>5.7</v>
+      </c>
+      <c r="AI539">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AJ539">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="540" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>16</v>
+      </c>
+      <c r="B540" t="s">
+        <v>266</v>
+      </c>
+      <c r="C540" t="s">
+        <v>267</v>
+      </c>
+      <c r="D540" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E540" t="s">
+        <v>250</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G540" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H540" t="s">
+        <v>76</v>
+      </c>
+      <c r="I540">
+        <v>3</v>
+      </c>
+      <c r="J540" t="s">
+        <v>48</v>
+      </c>
+      <c r="K540" t="s">
+        <v>68</v>
+      </c>
+      <c r="L540">
+        <v>17</v>
+      </c>
+      <c r="M540">
+        <v>42</v>
+      </c>
+      <c r="N540">
+        <v>2055</v>
+      </c>
+      <c r="O540">
+        <v>1061</v>
+      </c>
+      <c r="P540">
+        <v>7</v>
+      </c>
+      <c r="Q540">
+        <v>6</v>
+      </c>
+      <c r="R540">
+        <v>3</v>
+      </c>
+      <c r="S540">
+        <v>6</v>
+      </c>
+      <c r="T540">
+        <v>6</v>
+      </c>
+      <c r="U540">
+        <v>3</v>
+      </c>
+      <c r="Z540">
+        <v>2</v>
+      </c>
+      <c r="AA540">
+        <v>1</v>
+      </c>
+      <c r="AB540" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC540">
+        <v>1.4</v>
+      </c>
+      <c r="AD540">
+        <v>3</v>
+      </c>
+      <c r="AE540">
+        <v>1.51</v>
+      </c>
+      <c r="AF540">
+        <v>2.78</v>
+      </c>
+      <c r="AG540">
+        <v>1.51</v>
+      </c>
+      <c r="AH540">
+        <v>3</v>
+      </c>
+      <c r="AI540">
+        <v>1.44</v>
+      </c>
+      <c r="AJ540">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="541" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>16</v>
+      </c>
+      <c r="B541" t="s">
+        <v>266</v>
+      </c>
+      <c r="C541" t="s">
+        <v>267</v>
+      </c>
+      <c r="D541" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E541" t="s">
+        <v>250</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G541" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H541" t="s">
+        <v>76</v>
+      </c>
+      <c r="I541">
+        <v>3</v>
+      </c>
+      <c r="J541" t="s">
+        <v>49</v>
+      </c>
+      <c r="K541" t="s">
+        <v>171</v>
+      </c>
+      <c r="L541">
+        <v>7</v>
+      </c>
+      <c r="M541">
+        <v>93</v>
+      </c>
+      <c r="N541">
+        <v>3700</v>
+      </c>
+      <c r="O541">
+        <v>654</v>
+      </c>
+      <c r="P541">
+        <v>7</v>
+      </c>
+      <c r="Q541">
+        <v>6</v>
+      </c>
+      <c r="R541">
+        <v>6</v>
+      </c>
+      <c r="S541">
+        <v>2</v>
+      </c>
+      <c r="Z541">
+        <v>2</v>
+      </c>
+      <c r="AA541">
+        <v>0</v>
+      </c>
+      <c r="AB541" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC541">
+        <v>1.17</v>
+      </c>
+      <c r="AD541">
+        <v>5</v>
+      </c>
+      <c r="AE541">
+        <v>1.22</v>
+      </c>
+      <c r="AF541">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AG541">
+        <v>1.23</v>
+      </c>
+      <c r="AH541">
+        <v>5.05</v>
+      </c>
+      <c r="AI541">
+        <v>1.19</v>
+      </c>
+      <c r="AJ541">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="542" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>16</v>
+      </c>
+      <c r="B542" t="s">
+        <v>266</v>
+      </c>
+      <c r="C542" t="s">
+        <v>267</v>
+      </c>
+      <c r="D542" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E542" t="s">
+        <v>250</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H542" t="s">
+        <v>76</v>
+      </c>
+      <c r="I542">
+        <v>3</v>
+      </c>
+      <c r="J542" t="s">
+        <v>187</v>
+      </c>
+      <c r="K542" t="s">
+        <v>114</v>
+      </c>
+      <c r="L542">
+        <v>11</v>
+      </c>
+      <c r="M542">
+        <v>55</v>
+      </c>
+      <c r="N542">
+        <v>3120</v>
+      </c>
+      <c r="O542">
+        <v>922</v>
+      </c>
+      <c r="P542">
+        <v>6</v>
+      </c>
+      <c r="Q542">
+        <v>4</v>
+      </c>
+      <c r="R542">
+        <v>7</v>
+      </c>
+      <c r="S542">
+        <v>5</v>
+      </c>
+      <c r="Z542">
+        <v>2</v>
+      </c>
+      <c r="AA542">
+        <v>0</v>
+      </c>
+      <c r="AB542" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC542">
+        <v>1.2</v>
+      </c>
+      <c r="AD542">
+        <v>4.5</v>
+      </c>
+      <c r="AE542">
+        <v>1.24</v>
+      </c>
+      <c r="AF542">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AG542">
+        <v>1.25</v>
+      </c>
+      <c r="AH542">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AI542">
+        <v>1.21</v>
+      </c>
+      <c r="AJ542">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="543" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>16</v>
+      </c>
+      <c r="B543" t="s">
+        <v>266</v>
+      </c>
+      <c r="C543" t="s">
+        <v>267</v>
+      </c>
+      <c r="D543" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E543" t="s">
+        <v>250</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G543" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H543" t="s">
+        <v>78</v>
+      </c>
+      <c r="I543">
+        <v>3</v>
+      </c>
+      <c r="J543" t="s">
+        <v>113</v>
+      </c>
+      <c r="K543" t="s">
+        <v>91</v>
+      </c>
+      <c r="L543">
+        <v>50</v>
+      </c>
+      <c r="M543">
+        <v>53</v>
+      </c>
+      <c r="N543">
+        <v>951</v>
+      </c>
+      <c r="O543">
+        <v>940</v>
+      </c>
+      <c r="P543">
+        <v>6</v>
+      </c>
+      <c r="Q543">
+        <v>2</v>
+      </c>
+      <c r="R543">
+        <v>6</v>
+      </c>
+      <c r="S543">
+        <v>2</v>
+      </c>
+      <c r="Z543">
+        <v>2</v>
+      </c>
+      <c r="AA543">
+        <v>0</v>
+      </c>
+      <c r="AB543" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC543">
+        <v>1.33</v>
+      </c>
+      <c r="AD543">
+        <v>3.4</v>
+      </c>
+      <c r="AE543">
+        <v>1.38</v>
+      </c>
+      <c r="AF543">
+        <v>3.35</v>
+      </c>
+      <c r="AG543">
+        <v>1.38</v>
+      </c>
+      <c r="AH543">
+        <v>3.5</v>
+      </c>
+      <c r="AI543">
+        <v>1.33</v>
+      </c>
+      <c r="AJ543">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="544" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>16</v>
+      </c>
+      <c r="B544" t="s">
+        <v>266</v>
+      </c>
+      <c r="C544" t="s">
+        <v>267</v>
+      </c>
+      <c r="D544" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E544" t="s">
+        <v>250</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G544" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H544" t="s">
+        <v>78</v>
+      </c>
+      <c r="I544">
+        <v>3</v>
+      </c>
+      <c r="J544" t="s">
+        <v>177</v>
+      </c>
+      <c r="K544" t="s">
+        <v>168</v>
+      </c>
+      <c r="L544">
+        <v>9</v>
+      </c>
+      <c r="M544">
+        <v>12</v>
+      </c>
+      <c r="N544">
+        <v>3210</v>
+      </c>
+      <c r="O544">
+        <v>3080</v>
+      </c>
+      <c r="P544">
+        <v>1</v>
+      </c>
+      <c r="Q544">
+        <v>6</v>
+      </c>
+      <c r="R544">
+        <v>6</v>
+      </c>
+      <c r="S544">
+        <v>3</v>
+      </c>
+      <c r="T544">
+        <v>6</v>
+      </c>
+      <c r="U544">
+        <v>3</v>
+      </c>
+      <c r="Z544">
+        <v>2</v>
+      </c>
+      <c r="AA544">
+        <v>1</v>
+      </c>
+      <c r="AB544" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC544">
+        <v>2</v>
+      </c>
+      <c r="AD544">
+        <v>1.8</v>
+      </c>
+      <c r="AE544">
+        <v>1.93</v>
+      </c>
+      <c r="AF544">
+        <v>1.98</v>
+      </c>
+      <c r="AG544">
+        <v>2.1</v>
+      </c>
+      <c r="AH544">
+        <v>1.98</v>
+      </c>
+      <c r="AI544">
+        <v>1.91</v>
+      </c>
+      <c r="AJ544">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="545" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>16</v>
+      </c>
+      <c r="B545" t="s">
+        <v>266</v>
+      </c>
+      <c r="C545" t="s">
+        <v>267</v>
+      </c>
+      <c r="D545" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E545" t="s">
+        <v>250</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G545" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H545" t="s">
+        <v>78</v>
+      </c>
+      <c r="I545">
+        <v>3</v>
+      </c>
+      <c r="J545" t="s">
+        <v>49</v>
+      </c>
+      <c r="K545" t="s">
+        <v>195</v>
+      </c>
+      <c r="L545">
+        <v>7</v>
+      </c>
+      <c r="M545">
+        <v>58</v>
+      </c>
+      <c r="N545">
+        <v>3700</v>
+      </c>
+      <c r="O545">
+        <v>918</v>
+      </c>
+      <c r="P545">
+        <v>7</v>
+      </c>
+      <c r="Q545">
+        <v>6</v>
+      </c>
+      <c r="R545">
+        <v>7</v>
+      </c>
+      <c r="S545">
+        <v>6</v>
+      </c>
+      <c r="Z545">
+        <v>2</v>
+      </c>
+      <c r="AA545">
+        <v>0</v>
+      </c>
+      <c r="AB545" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC545">
+        <v>1.33</v>
+      </c>
+      <c r="AD545">
+        <v>3.4</v>
+      </c>
+      <c r="AE545">
+        <v>1.39</v>
+      </c>
+      <c r="AF545">
+        <v>3.3</v>
+      </c>
+      <c r="AG545">
+        <v>1.39</v>
+      </c>
+      <c r="AH545">
+        <v>3.5</v>
+      </c>
+      <c r="AI545">
+        <v>1.33</v>
+      </c>
+      <c r="AJ545">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="546" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>16</v>
+      </c>
+      <c r="B546" t="s">
+        <v>266</v>
+      </c>
+      <c r="C546" t="s">
+        <v>267</v>
+      </c>
+      <c r="D546" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E546" t="s">
+        <v>250</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G546" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H546" t="s">
+        <v>78</v>
+      </c>
+      <c r="I546">
+        <v>3</v>
+      </c>
+      <c r="J546" t="s">
+        <v>187</v>
+      </c>
+      <c r="K546" t="s">
+        <v>48</v>
+      </c>
+      <c r="L546">
+        <v>11</v>
+      </c>
+      <c r="M546">
+        <v>17</v>
+      </c>
+      <c r="N546">
+        <v>3120</v>
+      </c>
+      <c r="O546">
+        <v>2055</v>
+      </c>
+      <c r="P546">
+        <v>6</v>
+      </c>
+      <c r="Q546">
+        <v>7</v>
+      </c>
+      <c r="R546">
+        <v>6</v>
+      </c>
+      <c r="S546">
+        <v>4</v>
+      </c>
+      <c r="T546">
+        <v>6</v>
+      </c>
+      <c r="U546">
+        <v>4</v>
+      </c>
+      <c r="Z546">
+        <v>2</v>
+      </c>
+      <c r="AA546">
+        <v>1</v>
+      </c>
+      <c r="AB546" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC546">
+        <v>1.73</v>
+      </c>
+      <c r="AD546">
+        <v>2.1</v>
+      </c>
+      <c r="AE546">
+        <v>1.71</v>
+      </c>
+      <c r="AF546">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG546">
+        <v>1.8</v>
+      </c>
+      <c r="AH546">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AI546">
+        <v>1.68</v>
+      </c>
+      <c r="AJ546">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>16</v>
+      </c>
+      <c r="B547" t="s">
+        <v>266</v>
+      </c>
+      <c r="C547" t="s">
+        <v>267</v>
+      </c>
+      <c r="D547" s="2">
+        <v>45353</v>
+      </c>
+      <c r="E547" t="s">
+        <v>250</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G547" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H547" t="s">
+        <v>79</v>
+      </c>
+      <c r="I547">
+        <v>3</v>
+      </c>
+      <c r="J547" t="s">
+        <v>177</v>
+      </c>
+      <c r="K547" t="s">
+        <v>113</v>
+      </c>
+      <c r="L547">
+        <v>9</v>
+      </c>
+      <c r="M547">
+        <v>50</v>
+      </c>
+      <c r="N547">
+        <v>3210</v>
+      </c>
+      <c r="O547">
+        <v>951</v>
+      </c>
+      <c r="P547">
+        <v>6</v>
+      </c>
+      <c r="Q547">
+        <v>3</v>
+      </c>
+      <c r="R547">
+        <v>2</v>
+      </c>
+      <c r="S547">
+        <v>6</v>
+      </c>
+      <c r="T547">
+        <v>4</v>
+      </c>
+      <c r="U547">
+        <v>0</v>
+      </c>
+      <c r="Z547">
+        <v>1</v>
+      </c>
+      <c r="AA547">
+        <v>1</v>
+      </c>
+      <c r="AB547" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC547">
+        <v>1.62</v>
+      </c>
+      <c r="AD547">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE547">
+        <v>1.68</v>
+      </c>
+      <c r="AF547">
+        <v>2.33</v>
+      </c>
+      <c r="AG547">
+        <v>1.68</v>
+      </c>
+      <c r="AH547">
+        <v>2.33</v>
+      </c>
+      <c r="AI547">
+        <v>1.65</v>
+      </c>
+      <c r="AJ547">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>16</v>
+      </c>
+      <c r="B548" t="s">
+        <v>266</v>
+      </c>
+      <c r="C548" t="s">
+        <v>267</v>
+      </c>
+      <c r="D548" s="2">
+        <v>45353</v>
+      </c>
+      <c r="E548" t="s">
+        <v>250</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G548" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H548" t="s">
+        <v>79</v>
+      </c>
+      <c r="I548">
+        <v>3</v>
+      </c>
+      <c r="J548" t="s">
+        <v>187</v>
+      </c>
+      <c r="K548" t="s">
+        <v>49</v>
+      </c>
+      <c r="L548">
+        <v>11</v>
+      </c>
+      <c r="M548">
+        <v>7</v>
+      </c>
+      <c r="N548">
+        <v>3120</v>
+      </c>
+      <c r="O548">
+        <v>3700</v>
+      </c>
+      <c r="P548">
+        <v>3</v>
+      </c>
+      <c r="Q548">
+        <v>6</v>
+      </c>
+      <c r="R548">
+        <v>6</v>
+      </c>
+      <c r="S548">
+        <v>3</v>
+      </c>
+      <c r="T548">
+        <v>6</v>
+      </c>
+      <c r="U548">
+        <v>4</v>
+      </c>
+      <c r="Z548">
+        <v>2</v>
+      </c>
+      <c r="AA548">
+        <v>1</v>
+      </c>
+      <c r="AB548" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC548">
+        <v>1.73</v>
+      </c>
+      <c r="AD548">
+        <v>2.1</v>
+      </c>
+      <c r="AE548">
+        <v>1.66</v>
+      </c>
+      <c r="AF548">
+        <v>2.37</v>
+      </c>
+      <c r="AG548">
+        <v>1.73</v>
+      </c>
+      <c r="AH548">
+        <v>2.37</v>
+      </c>
+      <c r="AI548">
+        <v>1.64</v>
+      </c>
+      <c r="AJ548">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="549" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>16</v>
+      </c>
+      <c r="B549" t="s">
+        <v>266</v>
+      </c>
+      <c r="C549" t="s">
+        <v>267</v>
+      </c>
+      <c r="D549" s="2">
+        <v>45354</v>
+      </c>
+      <c r="E549" t="s">
+        <v>250</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G549" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H549" t="s">
+        <v>80</v>
+      </c>
+      <c r="I549">
+        <v>3</v>
+      </c>
+      <c r="J549" t="s">
+        <v>177</v>
+      </c>
+      <c r="K549" t="s">
+        <v>187</v>
+      </c>
+      <c r="L549">
+        <v>9</v>
+      </c>
+      <c r="M549">
+        <v>11</v>
+      </c>
+      <c r="N549">
+        <v>3210</v>
+      </c>
+      <c r="O549">
+        <v>3120</v>
+      </c>
+      <c r="P549">
+        <v>6</v>
+      </c>
+      <c r="Q549">
+        <v>4</v>
+      </c>
+      <c r="R549">
+        <v>6</v>
+      </c>
+      <c r="S549">
+        <v>4</v>
+      </c>
+      <c r="Z549">
+        <v>2</v>
+      </c>
+      <c r="AA549">
+        <v>0</v>
+      </c>
+      <c r="AB549" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC549">
+        <v>1.57</v>
+      </c>
+      <c r="AD549">
+        <v>2.38</v>
+      </c>
+      <c r="AE549">
+        <v>1.6</v>
+      </c>
+      <c r="AF549">
+        <v>2.5</v>
+      </c>
+      <c r="AG549">
+        <v>1.6</v>
+      </c>
+      <c r="AH549">
+        <v>2.5</v>
+      </c>
+      <c r="AI549">
+        <v>1.56</v>
+      </c>
+      <c r="AJ549">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>17</v>
+      </c>
+      <c r="B550" t="s">
+        <v>268</v>
+      </c>
+      <c r="C550" t="s">
+        <v>269</v>
+      </c>
+      <c r="D550" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E550" t="s">
+        <v>250</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G550" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H550" t="s">
+        <v>41</v>
+      </c>
+      <c r="I550">
+        <v>3</v>
+      </c>
+      <c r="J550" t="s">
+        <v>89</v>
+      </c>
+      <c r="K550" t="s">
+        <v>166</v>
+      </c>
+      <c r="L550">
+        <v>75</v>
+      </c>
+      <c r="M550">
+        <v>19</v>
+      </c>
+      <c r="N550">
+        <v>790</v>
+      </c>
+      <c r="O550">
+        <v>1950</v>
+      </c>
+      <c r="P550">
+        <v>7</v>
+      </c>
+      <c r="Q550">
+        <v>6</v>
+      </c>
+      <c r="R550">
+        <v>7</v>
+      </c>
+      <c r="S550">
+        <v>5</v>
+      </c>
+      <c r="Z550">
+        <v>2</v>
+      </c>
+      <c r="AA550">
+        <v>0</v>
+      </c>
+      <c r="AB550" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC550">
+        <v>1.91</v>
+      </c>
+      <c r="AD550">
+        <v>1.91</v>
+      </c>
+      <c r="AE550">
+        <v>1.92</v>
+      </c>
+      <c r="AF550">
+        <v>1.97</v>
+      </c>
+      <c r="AG550">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AH550">
+        <v>1.97</v>
+      </c>
+      <c r="AI550">
+        <v>1.87</v>
+      </c>
+      <c r="AJ550">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="551" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>17</v>
+      </c>
+      <c r="B551" t="s">
+        <v>268</v>
+      </c>
+      <c r="C551" t="s">
+        <v>269</v>
+      </c>
+      <c r="D551" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E551" t="s">
+        <v>250</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G551" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H551" t="s">
+        <v>41</v>
+      </c>
+      <c r="I551">
+        <v>3</v>
+      </c>
+      <c r="J551" t="s">
+        <v>54</v>
+      </c>
+      <c r="K551" t="s">
+        <v>85</v>
+      </c>
+      <c r="L551">
+        <v>33</v>
+      </c>
+      <c r="M551">
+        <v>63</v>
+      </c>
+      <c r="N551">
+        <v>1245</v>
+      </c>
+      <c r="O551">
+        <v>878</v>
+      </c>
+      <c r="P551">
+        <v>6</v>
+      </c>
+      <c r="Q551">
+        <v>0</v>
+      </c>
+      <c r="R551">
+        <v>6</v>
+      </c>
+      <c r="S551">
+        <v>2</v>
+      </c>
+      <c r="Z551">
+        <v>2</v>
+      </c>
+      <c r="AA551">
+        <v>0</v>
+      </c>
+      <c r="AB551" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC551">
+        <v>1.36</v>
+      </c>
+      <c r="AD551">
+        <v>3.2</v>
+      </c>
+      <c r="AE551">
+        <v>1.43</v>
+      </c>
+      <c r="AF551">
+        <v>3.01</v>
+      </c>
+      <c r="AG551">
+        <v>1.44</v>
+      </c>
+      <c r="AH551">
+        <v>3.2</v>
+      </c>
+      <c r="AI551">
+        <v>1.38</v>
+      </c>
+      <c r="AJ551">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="552" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>17</v>
+      </c>
+      <c r="B552" t="s">
+        <v>268</v>
+      </c>
+      <c r="C552" t="s">
+        <v>269</v>
+      </c>
+      <c r="D552" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E552" t="s">
+        <v>250</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G552" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H552" t="s">
+        <v>41</v>
+      </c>
+      <c r="I552">
+        <v>3</v>
+      </c>
+      <c r="J552" t="s">
+        <v>52</v>
+      </c>
+      <c r="K552" t="s">
+        <v>136</v>
+      </c>
+      <c r="L552">
+        <v>67</v>
+      </c>
+      <c r="M552">
+        <v>120</v>
+      </c>
+      <c r="N552">
+        <v>845</v>
+      </c>
+      <c r="O552">
+        <v>530</v>
+      </c>
+      <c r="P552">
+        <v>4</v>
+      </c>
+      <c r="Q552">
+        <v>6</v>
+      </c>
+      <c r="R552">
+        <v>7</v>
+      </c>
+      <c r="S552">
+        <v>6</v>
+      </c>
+      <c r="T552">
+        <v>6</v>
+      </c>
+      <c r="U552">
+        <v>3</v>
+      </c>
+      <c r="Z552">
+        <v>2</v>
+      </c>
+      <c r="AA552">
+        <v>1</v>
+      </c>
+      <c r="AB552" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC552">
+        <v>2.1</v>
+      </c>
+      <c r="AD552">
+        <v>1.73</v>
+      </c>
+      <c r="AE552">
+        <v>2.11</v>
+      </c>
+      <c r="AF552">
+        <v>1.81</v>
+      </c>
+      <c r="AG552">
+        <v>2.11</v>
+      </c>
+      <c r="AH552">
+        <v>1.81</v>
+      </c>
+      <c r="AI552">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AJ552">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="553" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>17</v>
+      </c>
+      <c r="B553" t="s">
+        <v>268</v>
+      </c>
+      <c r="C553" t="s">
+        <v>269</v>
+      </c>
+      <c r="D553" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E553" t="s">
+        <v>250</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G553" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H553" t="s">
+        <v>41</v>
+      </c>
+      <c r="I553">
+        <v>3</v>
+      </c>
+      <c r="J553" t="s">
+        <v>123</v>
+      </c>
+      <c r="K553" t="s">
+        <v>61</v>
+      </c>
+      <c r="L553">
+        <v>23</v>
+      </c>
+      <c r="M553">
+        <v>65</v>
+      </c>
+      <c r="N553">
+        <v>1699</v>
+      </c>
+      <c r="O553">
+        <v>863</v>
+      </c>
+      <c r="P553">
+        <v>2</v>
+      </c>
+      <c r="Q553">
+        <v>6</v>
+      </c>
+      <c r="R553">
+        <v>6</v>
+      </c>
+      <c r="S553">
+        <v>3</v>
+      </c>
+      <c r="T553">
+        <v>7</v>
+      </c>
+      <c r="U553">
+        <v>6</v>
+      </c>
+      <c r="Z553">
+        <v>2</v>
+      </c>
+      <c r="AA553">
+        <v>1</v>
+      </c>
+      <c r="AB553" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC553">
+        <v>2.1</v>
+      </c>
+      <c r="AD553">
+        <v>1.73</v>
+      </c>
+      <c r="AE553">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AF553">
+        <v>1.69</v>
+      </c>
+      <c r="AG553">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AH553">
+        <v>1.73</v>
+      </c>
+      <c r="AI553">
+        <v>2.17</v>
+      </c>
+      <c r="AJ553">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="554" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>17</v>
+      </c>
+      <c r="B554" t="s">
+        <v>268</v>
+      </c>
+      <c r="C554" t="s">
+        <v>269</v>
+      </c>
+      <c r="D554" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E554" t="s">
+        <v>250</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G554" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H554" t="s">
+        <v>41</v>
+      </c>
+      <c r="I554">
+        <v>3</v>
+      </c>
+      <c r="J554" t="s">
+        <v>185</v>
+      </c>
+      <c r="K554" t="s">
+        <v>253</v>
+      </c>
+      <c r="L554">
+        <v>28</v>
+      </c>
+      <c r="M554">
+        <v>228</v>
+      </c>
+      <c r="N554">
+        <v>1440</v>
+      </c>
+      <c r="O554">
+        <v>265</v>
+      </c>
+      <c r="P554">
+        <v>7</v>
+      </c>
+      <c r="Q554">
+        <v>5</v>
+      </c>
+      <c r="R554">
+        <v>2</v>
+      </c>
+      <c r="S554">
+        <v>0</v>
+      </c>
+      <c r="Z554">
+        <v>1</v>
+      </c>
+      <c r="AA554">
+        <v>0</v>
+      </c>
+      <c r="AB554" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC554">
+        <v>1.25</v>
+      </c>
+      <c r="AD554">
+        <v>4</v>
+      </c>
+      <c r="AE554">
+        <v>1.3</v>
+      </c>
+      <c r="AF554">
+        <v>3.88</v>
+      </c>
+      <c r="AG554">
+        <v>1.31</v>
+      </c>
+      <c r="AH554">
+        <v>4.05</v>
+      </c>
+      <c r="AI554">
+        <v>1.26</v>
+      </c>
+      <c r="AJ554">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="555" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>17</v>
+      </c>
+      <c r="B555" t="s">
+        <v>268</v>
+      </c>
+      <c r="C555" t="s">
+        <v>269</v>
+      </c>
+      <c r="D555" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E555" t="s">
+        <v>250</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G555" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H555" t="s">
+        <v>41</v>
+      </c>
+      <c r="I555">
+        <v>3</v>
+      </c>
+      <c r="J555" t="s">
+        <v>110</v>
+      </c>
+      <c r="K555" t="s">
+        <v>172</v>
+      </c>
+      <c r="L555">
+        <v>5</v>
+      </c>
+      <c r="M555">
+        <v>46</v>
+      </c>
+      <c r="N555">
+        <v>5110</v>
+      </c>
+      <c r="O555">
+        <v>1006</v>
+      </c>
+      <c r="P555">
+        <v>6</v>
+      </c>
+      <c r="Q555">
+        <v>7</v>
+      </c>
+      <c r="R555">
+        <v>6</v>
+      </c>
+      <c r="S555">
+        <v>2</v>
+      </c>
+      <c r="T555">
+        <v>6</v>
+      </c>
+      <c r="U555">
+        <v>4</v>
+      </c>
+      <c r="Z555">
+        <v>2</v>
+      </c>
+      <c r="AA555">
+        <v>1</v>
+      </c>
+      <c r="AB555" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC555">
+        <v>1.17</v>
+      </c>
+      <c r="AD555">
+        <v>5</v>
+      </c>
+      <c r="AE555">
+        <v>1.19</v>
+      </c>
+      <c r="AF555">
+        <v>5.33</v>
+      </c>
+      <c r="AG555">
+        <v>1.2</v>
+      </c>
+      <c r="AH555">
+        <v>5.33</v>
+      </c>
+      <c r="AI555">
+        <v>1.18</v>
+      </c>
+      <c r="AJ555">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="556" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>17</v>
+      </c>
+      <c r="B556" t="s">
+        <v>268</v>
+      </c>
+      <c r="C556" t="s">
+        <v>269</v>
+      </c>
+      <c r="D556" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E556" t="s">
+        <v>250</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G556" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H556" t="s">
+        <v>41</v>
+      </c>
+      <c r="I556">
+        <v>3</v>
+      </c>
+      <c r="J556" t="s">
+        <v>179</v>
+      </c>
+      <c r="K556" t="s">
+        <v>97</v>
+      </c>
+      <c r="L556">
+        <v>8</v>
+      </c>
+      <c r="M556">
+        <v>25</v>
+      </c>
+      <c r="N556">
+        <v>3395</v>
+      </c>
+      <c r="O556">
+        <v>1531</v>
+      </c>
+      <c r="P556">
+        <v>7</v>
+      </c>
+      <c r="Q556">
+        <v>6</v>
+      </c>
+      <c r="R556">
+        <v>6</v>
+      </c>
+      <c r="S556">
+        <v>7</v>
+      </c>
+      <c r="T556">
+        <v>7</v>
+      </c>
+      <c r="U556">
+        <v>6</v>
+      </c>
+      <c r="Z556">
+        <v>2</v>
+      </c>
+      <c r="AA556">
+        <v>1</v>
+      </c>
+      <c r="AB556" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC556">
+        <v>1.17</v>
+      </c>
+      <c r="AD556">
+        <v>5</v>
+      </c>
+      <c r="AE556">
+        <v>1.23</v>
+      </c>
+      <c r="AF556">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AG556">
+        <v>1.23</v>
+      </c>
+      <c r="AH556">
+        <v>5</v>
+      </c>
+      <c r="AI556">
+        <v>1.19</v>
+      </c>
+      <c r="AJ556">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>17</v>
+      </c>
+      <c r="B557" t="s">
+        <v>268</v>
+      </c>
+      <c r="C557" t="s">
+        <v>269</v>
+      </c>
+      <c r="D557" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E557" t="s">
+        <v>250</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G557" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H557" t="s">
+        <v>41</v>
+      </c>
+      <c r="I557">
+        <v>3</v>
+      </c>
+      <c r="J557" t="s">
+        <v>121</v>
+      </c>
+      <c r="K557" t="s">
+        <v>69</v>
+      </c>
+      <c r="L557">
+        <v>36</v>
+      </c>
+      <c r="M557">
+        <v>77</v>
+      </c>
+      <c r="N557">
+        <v>1180</v>
+      </c>
+      <c r="O557">
+        <v>757</v>
+      </c>
+      <c r="P557">
+        <v>6</v>
+      </c>
+      <c r="Q557">
+        <v>4</v>
+      </c>
+      <c r="R557">
+        <v>3</v>
+      </c>
+      <c r="S557">
+        <v>6</v>
+      </c>
+      <c r="T557">
+        <v>7</v>
+      </c>
+      <c r="U557">
+        <v>5</v>
+      </c>
+      <c r="Z557">
+        <v>2</v>
+      </c>
+      <c r="AA557">
+        <v>1</v>
+      </c>
+      <c r="AB557" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC557">
+        <v>1.62</v>
+      </c>
+      <c r="AD557">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE557">
+        <v>1.74</v>
+      </c>
+      <c r="AF557">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG557">
+        <v>1.74</v>
+      </c>
+      <c r="AH557">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AI557">
+        <v>1.67</v>
+      </c>
+      <c r="AJ557">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>17</v>
+      </c>
+      <c r="B558" t="s">
+        <v>268</v>
+      </c>
+      <c r="C558" t="s">
+        <v>269</v>
+      </c>
+      <c r="D558" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E558" t="s">
+        <v>250</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G558" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H558" t="s">
+        <v>41</v>
+      </c>
+      <c r="I558">
+        <v>3</v>
+      </c>
+      <c r="J558" t="s">
+        <v>163</v>
+      </c>
+      <c r="K558" t="s">
+        <v>100</v>
+      </c>
+      <c r="L558">
+        <v>24</v>
+      </c>
+      <c r="M558">
+        <v>59</v>
+      </c>
+      <c r="N558">
+        <v>1540</v>
+      </c>
+      <c r="O558">
+        <v>914</v>
+      </c>
+      <c r="P558">
+        <v>6</v>
+      </c>
+      <c r="Q558">
+        <v>3</v>
+      </c>
+      <c r="R558">
+        <v>4</v>
+      </c>
+      <c r="S558">
+        <v>6</v>
+      </c>
+      <c r="T558">
+        <v>6</v>
+      </c>
+      <c r="U558">
+        <v>1</v>
+      </c>
+      <c r="Z558">
+        <v>2</v>
+      </c>
+      <c r="AA558">
+        <v>1</v>
+      </c>
+      <c r="AB558" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC558">
+        <v>1.53</v>
+      </c>
+      <c r="AD558">
+        <v>2.5</v>
+      </c>
+      <c r="AE558">
+        <v>1.63</v>
+      </c>
+      <c r="AF558">
+        <v>2.4</v>
+      </c>
+      <c r="AG558">
+        <v>1.63</v>
+      </c>
+      <c r="AH558">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AI558">
+        <v>1.57</v>
+      </c>
+      <c r="AJ558">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="559" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>17</v>
+      </c>
+      <c r="B559" t="s">
+        <v>268</v>
+      </c>
+      <c r="C559" t="s">
+        <v>269</v>
+      </c>
+      <c r="D559" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E559" t="s">
+        <v>250</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G559" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H559" t="s">
+        <v>41</v>
+      </c>
+      <c r="I559">
+        <v>3</v>
+      </c>
+      <c r="J559" t="s">
+        <v>74</v>
+      </c>
+      <c r="K559" t="s">
+        <v>134</v>
+      </c>
+      <c r="L559">
+        <v>18</v>
+      </c>
+      <c r="M559">
+        <v>54</v>
+      </c>
+      <c r="N559">
+        <v>1990</v>
+      </c>
+      <c r="O559">
+        <v>937</v>
+      </c>
+      <c r="P559">
+        <v>4</v>
+      </c>
+      <c r="Q559">
+        <v>6</v>
+      </c>
+      <c r="R559">
+        <v>6</v>
+      </c>
+      <c r="S559">
+        <v>3</v>
+      </c>
+      <c r="T559">
+        <v>6</v>
+      </c>
+      <c r="U559">
+        <v>3</v>
+      </c>
+      <c r="Z559">
+        <v>2</v>
+      </c>
+      <c r="AA559">
+        <v>1</v>
+      </c>
+      <c r="AB559" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC559">
+        <v>1.53</v>
+      </c>
+      <c r="AD559">
+        <v>2.5</v>
+      </c>
+      <c r="AE559">
+        <v>1.51</v>
+      </c>
+      <c r="AF559">
+        <v>2.72</v>
+      </c>
+      <c r="AG559">
+        <v>1.58</v>
+      </c>
+      <c r="AH559">
+        <v>2.72</v>
+      </c>
+      <c r="AI559">
+        <v>1.51</v>
+      </c>
+      <c r="AJ559">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>17</v>
+      </c>
+      <c r="B560" t="s">
+        <v>268</v>
+      </c>
+      <c r="C560" t="s">
+        <v>269</v>
+      </c>
+      <c r="D560" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E560" t="s">
+        <v>250</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G560" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H560" t="s">
+        <v>41</v>
+      </c>
+      <c r="I560">
+        <v>3</v>
+      </c>
+      <c r="J560" t="s">
+        <v>183</v>
+      </c>
+      <c r="K560" t="s">
+        <v>105</v>
+      </c>
+      <c r="L560">
+        <v>86</v>
+      </c>
+      <c r="M560">
+        <v>26</v>
+      </c>
+      <c r="N560">
+        <v>701</v>
+      </c>
+      <c r="O560">
+        <v>1480</v>
+      </c>
+      <c r="P560">
+        <v>6</v>
+      </c>
+      <c r="Q560">
+        <v>4</v>
+      </c>
+      <c r="R560">
+        <v>7</v>
+      </c>
+      <c r="S560">
+        <v>6</v>
+      </c>
+      <c r="Z560">
+        <v>2</v>
+      </c>
+      <c r="AA560">
+        <v>0</v>
+      </c>
+      <c r="AB560" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC560">
+        <v>1.44</v>
+      </c>
+      <c r="AD560">
+        <v>2.75</v>
+      </c>
+      <c r="AE560">
+        <v>1.5</v>
+      </c>
+      <c r="AF560">
+        <v>2.78</v>
+      </c>
+      <c r="AG560">
+        <v>1.5</v>
+      </c>
+      <c r="AH560">
+        <v>2.9</v>
+      </c>
+      <c r="AI560">
+        <v>1.43</v>
+      </c>
+      <c r="AJ560">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="561" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>17</v>
+      </c>
+      <c r="B561" t="s">
+        <v>268</v>
+      </c>
+      <c r="C561" t="s">
+        <v>269</v>
+      </c>
+      <c r="D561" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E561" t="s">
+        <v>250</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G561" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H561" t="s">
+        <v>41</v>
+      </c>
+      <c r="I561">
+        <v>3</v>
+      </c>
+      <c r="J561" t="s">
+        <v>43</v>
+      </c>
+      <c r="K561" t="s">
+        <v>175</v>
+      </c>
+      <c r="L561">
+        <v>68</v>
+      </c>
+      <c r="M561">
+        <v>96</v>
+      </c>
+      <c r="N561">
+        <v>834</v>
+      </c>
+      <c r="O561">
+        <v>612</v>
+      </c>
+      <c r="P561">
+        <v>6</v>
+      </c>
+      <c r="Q561">
+        <v>2</v>
+      </c>
+      <c r="R561">
+        <v>6</v>
+      </c>
+      <c r="S561">
+        <v>4</v>
+      </c>
+      <c r="Z561">
+        <v>2</v>
+      </c>
+      <c r="AA561">
+        <v>0</v>
+      </c>
+      <c r="AB561" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC561">
+        <v>1.67</v>
+      </c>
+      <c r="AD561">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE561">
+        <v>1.67</v>
+      </c>
+      <c r="AF561">
+        <v>2.33</v>
+      </c>
+      <c r="AG561">
+        <v>1.85</v>
+      </c>
+      <c r="AH561">
+        <v>2.33</v>
+      </c>
+      <c r="AI561">
+        <v>1.68</v>
+      </c>
+      <c r="AJ561">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="562" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>17</v>
+      </c>
+      <c r="B562" t="s">
+        <v>268</v>
+      </c>
+      <c r="C562" t="s">
+        <v>269</v>
+      </c>
+      <c r="D562" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E562" t="s">
+        <v>250</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G562" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H562" t="s">
+        <v>41</v>
+      </c>
+      <c r="I562">
+        <v>3</v>
+      </c>
+      <c r="J562" t="s">
+        <v>108</v>
+      </c>
+      <c r="K562" t="s">
+        <v>46</v>
+      </c>
+      <c r="L562">
+        <v>15</v>
+      </c>
+      <c r="M562">
+        <v>72</v>
+      </c>
+      <c r="N562">
+        <v>2260</v>
+      </c>
+      <c r="O562">
+        <v>808</v>
+      </c>
+      <c r="P562">
+        <v>6</v>
+      </c>
+      <c r="Q562">
+        <v>2</v>
+      </c>
+      <c r="R562">
+        <v>6</v>
+      </c>
+      <c r="S562">
+        <v>3</v>
+      </c>
+      <c r="Z562">
+        <v>2</v>
+      </c>
+      <c r="AA562">
+        <v>0</v>
+      </c>
+      <c r="AB562" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC562">
+        <v>1.2</v>
+      </c>
+      <c r="AD562">
+        <v>4.5</v>
+      </c>
+      <c r="AE562">
+        <v>1.2</v>
+      </c>
+      <c r="AF562">
+        <v>5.05</v>
+      </c>
+      <c r="AG562">
+        <v>1.23</v>
+      </c>
+      <c r="AH562">
+        <v>5.05</v>
+      </c>
+      <c r="AI562">
+        <v>1.2</v>
+      </c>
+      <c r="AJ562">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="563" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>17</v>
+      </c>
+      <c r="B563" t="s">
+        <v>268</v>
+      </c>
+      <c r="C563" t="s">
+        <v>269</v>
+      </c>
+      <c r="D563" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E563" t="s">
+        <v>250</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G563" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H563" t="s">
+        <v>41</v>
+      </c>
+      <c r="I563">
+        <v>3</v>
+      </c>
+      <c r="J563" t="s">
+        <v>170</v>
+      </c>
+      <c r="K563" t="s">
+        <v>156</v>
+      </c>
+      <c r="L563">
+        <v>87</v>
+      </c>
+      <c r="M563">
+        <v>31</v>
+      </c>
+      <c r="N563">
+        <v>701</v>
+      </c>
+      <c r="O563">
+        <v>1274</v>
+      </c>
+      <c r="P563">
+        <v>4</v>
+      </c>
+      <c r="Q563">
+        <v>6</v>
+      </c>
+      <c r="R563">
+        <v>6</v>
+      </c>
+      <c r="S563">
+        <v>3</v>
+      </c>
+      <c r="T563">
+        <v>7</v>
+      </c>
+      <c r="U563">
+        <v>6</v>
+      </c>
+      <c r="Z563">
+        <v>2</v>
+      </c>
+      <c r="AA563">
+        <v>1</v>
+      </c>
+      <c r="AB563" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC563">
+        <v>2.1</v>
+      </c>
+      <c r="AD563">
+        <v>1.73</v>
+      </c>
+      <c r="AE563">
+        <v>1.99</v>
+      </c>
+      <c r="AF563">
+        <v>1.9</v>
+      </c>
+      <c r="AG563">
+        <v>2.12</v>
+      </c>
+      <c r="AH563">
+        <v>1.9</v>
+      </c>
+      <c r="AI563">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AJ563">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="564" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>17</v>
+      </c>
+      <c r="B564" t="s">
+        <v>268</v>
+      </c>
+      <c r="C564" t="s">
+        <v>269</v>
+      </c>
+      <c r="D564" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E564" t="s">
+        <v>250</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G564" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H564" t="s">
+        <v>41</v>
+      </c>
+      <c r="I564">
+        <v>3</v>
+      </c>
+      <c r="J564" t="s">
+        <v>161</v>
+      </c>
+      <c r="K564" t="s">
+        <v>45</v>
+      </c>
+      <c r="L564">
+        <v>4</v>
+      </c>
+      <c r="M564">
+        <v>47</v>
+      </c>
+      <c r="N564">
+        <v>8015</v>
+      </c>
+      <c r="O564">
+        <v>1000</v>
+      </c>
+      <c r="P564">
+        <v>6</v>
+      </c>
+      <c r="Q564">
+        <v>3</v>
+      </c>
+      <c r="R564">
+        <v>7</v>
+      </c>
+      <c r="S564">
+        <v>5</v>
+      </c>
+      <c r="Z564">
+        <v>2</v>
+      </c>
+      <c r="AA564">
+        <v>0</v>
+      </c>
+      <c r="AB564" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC564">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD564">
+        <v>7</v>
+      </c>
+      <c r="AE564">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AF564">
+        <v>6.71</v>
+      </c>
+      <c r="AG564">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AH564">
+        <v>7.03</v>
+      </c>
+      <c r="AI564">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AJ564">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="565" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>17</v>
+      </c>
+      <c r="B565" t="s">
+        <v>268</v>
+      </c>
+      <c r="C565" t="s">
+        <v>269</v>
+      </c>
+      <c r="D565" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E565" t="s">
+        <v>250</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G565" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H565" t="s">
+        <v>41</v>
+      </c>
+      <c r="I565">
+        <v>3</v>
+      </c>
+      <c r="J565" t="s">
+        <v>120</v>
+      </c>
+      <c r="K565" t="s">
+        <v>192</v>
+      </c>
+      <c r="L565">
+        <v>48</v>
+      </c>
+      <c r="M565">
+        <v>97</v>
+      </c>
+      <c r="N565">
+        <v>975</v>
+      </c>
+      <c r="O565">
+        <v>612</v>
+      </c>
+      <c r="P565">
+        <v>6</v>
+      </c>
+      <c r="Q565">
+        <v>4</v>
+      </c>
+      <c r="R565">
+        <v>5</v>
+      </c>
+      <c r="S565">
+        <v>7</v>
+      </c>
+      <c r="T565">
+        <v>6</v>
+      </c>
+      <c r="U565">
+        <v>1</v>
+      </c>
+      <c r="Z565">
+        <v>2</v>
+      </c>
+      <c r="AA565">
+        <v>1</v>
+      </c>
+      <c r="AB565" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC565">
+        <v>1.53</v>
+      </c>
+      <c r="AD565">
+        <v>2.5</v>
+      </c>
+      <c r="AE565">
+        <v>1.52</v>
+      </c>
+      <c r="AF565">
+        <v>2.67</v>
+      </c>
+      <c r="AG565">
+        <v>1.54</v>
+      </c>
+      <c r="AH565">
+        <v>2.75</v>
+      </c>
+      <c r="AI565">
+        <v>1.49</v>
+      </c>
+      <c r="AJ565">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="566" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>17</v>
+      </c>
+      <c r="B566" t="s">
+        <v>268</v>
+      </c>
+      <c r="C566" t="s">
+        <v>269</v>
+      </c>
+      <c r="D566" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E566" t="s">
+        <v>250</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G566" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H566" t="s">
+        <v>76</v>
+      </c>
+      <c r="I566">
+        <v>3</v>
+      </c>
+      <c r="J566" t="s">
+        <v>123</v>
+      </c>
+      <c r="K566" t="s">
+        <v>185</v>
+      </c>
+      <c r="L566">
+        <v>23</v>
+      </c>
+      <c r="M566">
+        <v>28</v>
+      </c>
+      <c r="N566">
+        <v>1699</v>
+      </c>
+      <c r="O566">
+        <v>1440</v>
+      </c>
+      <c r="P566">
+        <v>7</v>
+      </c>
+      <c r="Q566">
+        <v>6</v>
+      </c>
+      <c r="R566">
+        <v>7</v>
+      </c>
+      <c r="S566">
+        <v>6</v>
+      </c>
+      <c r="Z566">
+        <v>2</v>
+      </c>
+      <c r="AA566">
+        <v>0</v>
+      </c>
+      <c r="AB566" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC566">
+        <v>1.91</v>
+      </c>
+      <c r="AD566">
+        <v>1.91</v>
+      </c>
+      <c r="AE566">
+        <v>1.99</v>
+      </c>
+      <c r="AF566">
+        <v>1.92</v>
+      </c>
+      <c r="AG566">
+        <v>1.99</v>
+      </c>
+      <c r="AH566">
+        <v>1.99</v>
+      </c>
+      <c r="AI566">
+        <v>1.9</v>
+      </c>
+      <c r="AJ566">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="567" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>17</v>
+      </c>
+      <c r="B567" t="s">
+        <v>268</v>
+      </c>
+      <c r="C567" t="s">
+        <v>269</v>
+      </c>
+      <c r="D567" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E567" t="s">
+        <v>250</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G567" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H567" t="s">
+        <v>76</v>
+      </c>
+      <c r="I567">
+        <v>3</v>
+      </c>
+      <c r="J567" t="s">
+        <v>110</v>
+      </c>
+      <c r="K567" t="s">
+        <v>183</v>
+      </c>
+      <c r="L567">
+        <v>5</v>
+      </c>
+      <c r="M567">
+        <v>86</v>
+      </c>
+      <c r="N567">
+        <v>5110</v>
+      </c>
+      <c r="O567">
+        <v>701</v>
+      </c>
+      <c r="P567">
+        <v>6</v>
+      </c>
+      <c r="Q567">
+        <v>4</v>
+      </c>
+      <c r="R567">
+        <v>6</v>
+      </c>
+      <c r="S567">
+        <v>4</v>
+      </c>
+      <c r="Z567">
+        <v>2</v>
+      </c>
+      <c r="AA567">
+        <v>0</v>
+      </c>
+      <c r="AB567" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC567">
+        <v>1.29</v>
+      </c>
+      <c r="AD567">
+        <v>3.75</v>
+      </c>
+      <c r="AE567">
+        <v>1.33</v>
+      </c>
+      <c r="AF567">
+        <v>3.64</v>
+      </c>
+      <c r="AG567">
+        <v>1.36</v>
+      </c>
+      <c r="AH567">
+        <v>3.75</v>
+      </c>
+      <c r="AI567">
+        <v>1.31</v>
+      </c>
+      <c r="AJ567">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="568" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>17</v>
+      </c>
+      <c r="B568" t="s">
+        <v>268</v>
+      </c>
+      <c r="C568" t="s">
+        <v>269</v>
+      </c>
+      <c r="D568" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E568" t="s">
+        <v>250</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G568" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H568" t="s">
+        <v>76</v>
+      </c>
+      <c r="I568">
+        <v>3</v>
+      </c>
+      <c r="J568" t="s">
+        <v>74</v>
+      </c>
+      <c r="K568" t="s">
+        <v>52</v>
+      </c>
+      <c r="L568">
+        <v>18</v>
+      </c>
+      <c r="M568">
+        <v>67</v>
+      </c>
+      <c r="N568">
+        <v>1990</v>
+      </c>
+      <c r="O568">
+        <v>845</v>
+      </c>
+      <c r="P568">
+        <v>6</v>
+      </c>
+      <c r="Q568">
+        <v>2</v>
+      </c>
+      <c r="R568">
+        <v>6</v>
+      </c>
+      <c r="S568">
+        <v>4</v>
+      </c>
+      <c r="Z568">
+        <v>2</v>
+      </c>
+      <c r="AA568">
+        <v>0</v>
+      </c>
+      <c r="AB568" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC568">
+        <v>1.36</v>
+      </c>
+      <c r="AD568">
+        <v>3.2</v>
+      </c>
+      <c r="AE568">
+        <v>1.37</v>
+      </c>
+      <c r="AF568">
+        <v>3.42</v>
+      </c>
+      <c r="AG568">
+        <v>1.38</v>
+      </c>
+      <c r="AH568">
+        <v>3.42</v>
+      </c>
+      <c r="AI568">
+        <v>1.35</v>
+      </c>
+      <c r="AJ568">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="569" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>17</v>
+      </c>
+      <c r="B569" t="s">
+        <v>268</v>
+      </c>
+      <c r="C569" t="s">
+        <v>269</v>
+      </c>
+      <c r="D569" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E569" t="s">
+        <v>250</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G569" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H569" t="s">
+        <v>76</v>
+      </c>
+      <c r="I569">
+        <v>3</v>
+      </c>
+      <c r="J569" t="s">
+        <v>121</v>
+      </c>
+      <c r="K569" t="s">
+        <v>108</v>
+      </c>
+      <c r="L569">
+        <v>36</v>
+      </c>
+      <c r="M569">
+        <v>15</v>
+      </c>
+      <c r="N569">
+        <v>1180</v>
+      </c>
+      <c r="O569">
+        <v>2260</v>
+      </c>
+      <c r="P569">
+        <v>6</v>
+      </c>
+      <c r="Q569">
+        <v>7</v>
+      </c>
+      <c r="R569">
+        <v>7</v>
+      </c>
+      <c r="S569">
+        <v>6</v>
+      </c>
+      <c r="T569">
+        <v>6</v>
+      </c>
+      <c r="U569">
+        <v>4</v>
+      </c>
+      <c r="Z569">
+        <v>2</v>
+      </c>
+      <c r="AA569">
+        <v>1</v>
+      </c>
+      <c r="AB569" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC569">
+        <v>2.75</v>
+      </c>
+      <c r="AD569">
+        <v>1.44</v>
+      </c>
+      <c r="AE569">
+        <v>3.03</v>
+      </c>
+      <c r="AF569">
+        <v>1.44</v>
+      </c>
+      <c r="AG569">
+        <v>3.03</v>
+      </c>
+      <c r="AH569">
+        <v>1.45</v>
+      </c>
+      <c r="AI569">
+        <v>2.8</v>
+      </c>
+      <c r="AJ569">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="570" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>17</v>
+      </c>
+      <c r="B570" t="s">
+        <v>268</v>
+      </c>
+      <c r="C570" t="s">
+        <v>269</v>
+      </c>
+      <c r="D570" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E570" t="s">
+        <v>250</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G570" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H570" t="s">
+        <v>76</v>
+      </c>
+      <c r="I570">
+        <v>3</v>
+      </c>
+      <c r="J570" t="s">
+        <v>161</v>
+      </c>
+      <c r="K570" t="s">
+        <v>120</v>
+      </c>
+      <c r="L570">
+        <v>4</v>
+      </c>
+      <c r="M570">
+        <v>48</v>
+      </c>
+      <c r="N570">
+        <v>8015</v>
+      </c>
+      <c r="O570">
+        <v>975</v>
+      </c>
+      <c r="P570">
+        <v>3</v>
+      </c>
+      <c r="Q570">
+        <v>6</v>
+      </c>
+      <c r="R570">
+        <v>6</v>
+      </c>
+      <c r="S570">
+        <v>3</v>
+      </c>
+      <c r="T570">
+        <v>6</v>
+      </c>
+      <c r="U570">
+        <v>3</v>
+      </c>
+      <c r="Z570">
+        <v>2</v>
+      </c>
+      <c r="AA570">
+        <v>1</v>
+      </c>
+      <c r="AB570" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC570">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD570">
+        <v>7</v>
+      </c>
+      <c r="AE570">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AF570">
+        <v>7.77</v>
+      </c>
+      <c r="AG570">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AH570">
+        <v>7.77</v>
+      </c>
+      <c r="AI570">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ570">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="571" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>17</v>
+      </c>
+      <c r="B571" t="s">
+        <v>268</v>
+      </c>
+      <c r="C571" t="s">
+        <v>269</v>
+      </c>
+      <c r="D571" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E571" t="s">
+        <v>250</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G571" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H571" t="s">
+        <v>76</v>
+      </c>
+      <c r="I571">
+        <v>3</v>
+      </c>
+      <c r="J571" t="s">
+        <v>54</v>
+      </c>
+      <c r="K571" t="s">
+        <v>89</v>
+      </c>
+      <c r="L571">
+        <v>33</v>
+      </c>
+      <c r="M571">
+        <v>75</v>
+      </c>
+      <c r="N571">
+        <v>1245</v>
+      </c>
+      <c r="O571">
+        <v>790</v>
+      </c>
+      <c r="P571">
+        <v>6</v>
+      </c>
+      <c r="Q571">
+        <v>1</v>
+      </c>
+      <c r="R571">
+        <v>6</v>
+      </c>
+      <c r="S571">
+        <v>0</v>
+      </c>
+      <c r="Z571">
+        <v>2</v>
+      </c>
+      <c r="AA571">
+        <v>0</v>
+      </c>
+      <c r="AB571" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC571">
+        <v>1.53</v>
+      </c>
+      <c r="AD571">
+        <v>2.5</v>
+      </c>
+      <c r="AE571">
+        <v>1.55</v>
+      </c>
+      <c r="AF571">
+        <v>2.64</v>
+      </c>
+      <c r="AG571">
+        <v>1.55</v>
+      </c>
+      <c r="AH571">
+        <v>2.75</v>
+      </c>
+      <c r="AI571">
+        <v>1.5</v>
+      </c>
+      <c r="AJ571">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="572" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>17</v>
+      </c>
+      <c r="B572" t="s">
+        <v>268</v>
+      </c>
+      <c r="C572" t="s">
+        <v>269</v>
+      </c>
+      <c r="D572" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E572" t="s">
+        <v>250</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G572" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H572" t="s">
+        <v>76</v>
+      </c>
+      <c r="I572">
+        <v>3</v>
+      </c>
+      <c r="J572" t="s">
+        <v>163</v>
+      </c>
+      <c r="K572" t="s">
+        <v>170</v>
+      </c>
+      <c r="L572">
+        <v>24</v>
+      </c>
+      <c r="M572">
+        <v>87</v>
+      </c>
+      <c r="N572">
+        <v>1540</v>
+      </c>
+      <c r="O572">
+        <v>701</v>
+      </c>
+      <c r="P572">
+        <v>7</v>
+      </c>
+      <c r="Q572">
+        <v>6</v>
+      </c>
+      <c r="R572">
+        <v>1</v>
+      </c>
+      <c r="S572">
+        <v>0</v>
+      </c>
+      <c r="Z572">
+        <v>1</v>
+      </c>
+      <c r="AA572">
+        <v>0</v>
+      </c>
+      <c r="AB572" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC572">
+        <v>1.67</v>
+      </c>
+      <c r="AD572">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE572">
+        <v>1.75</v>
+      </c>
+      <c r="AF572">
+        <v>2.21</v>
+      </c>
+      <c r="AG572">
+        <v>1.75</v>
+      </c>
+      <c r="AH572">
+        <v>2.23</v>
+      </c>
+      <c r="AI572">
+        <v>1.7</v>
+      </c>
+      <c r="AJ572">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="573" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>17</v>
+      </c>
+      <c r="B573" t="s">
+        <v>268</v>
+      </c>
+      <c r="C573" t="s">
+        <v>269</v>
+      </c>
+      <c r="D573" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E573" t="s">
+        <v>250</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G573" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H573" t="s">
+        <v>76</v>
+      </c>
+      <c r="I573">
+        <v>3</v>
+      </c>
+      <c r="J573" t="s">
+        <v>179</v>
+      </c>
+      <c r="K573" t="s">
+        <v>43</v>
+      </c>
+      <c r="L573">
+        <v>8</v>
+      </c>
+      <c r="M573">
+        <v>68</v>
+      </c>
+      <c r="N573">
+        <v>3395</v>
+      </c>
+      <c r="O573">
+        <v>834</v>
+      </c>
+      <c r="P573">
+        <v>7</v>
+      </c>
+      <c r="Q573">
+        <v>6</v>
+      </c>
+      <c r="R573">
+        <v>6</v>
+      </c>
+      <c r="S573">
+        <v>4</v>
+      </c>
+      <c r="Z573">
+        <v>2</v>
+      </c>
+      <c r="AA573">
+        <v>0</v>
+      </c>
+      <c r="AB573" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC573">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD573">
+        <v>6</v>
+      </c>
+      <c r="AE573">
+        <v>1.19</v>
+      </c>
+      <c r="AF573">
+        <v>5.36</v>
+      </c>
+      <c r="AG573">
+        <v>1.19</v>
+      </c>
+      <c r="AH573">
+        <v>6.25</v>
+      </c>
+      <c r="AI573">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AJ573">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="574" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>17</v>
+      </c>
+      <c r="B574" t="s">
+        <v>268</v>
+      </c>
+      <c r="C574" t="s">
+        <v>269</v>
+      </c>
+      <c r="D574" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E574" t="s">
+        <v>250</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G574" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H574" t="s">
+        <v>78</v>
+      </c>
+      <c r="I574">
+        <v>3</v>
+      </c>
+      <c r="J574" t="s">
+        <v>123</v>
+      </c>
+      <c r="K574" t="s">
+        <v>121</v>
+      </c>
+      <c r="L574">
+        <v>23</v>
+      </c>
+      <c r="M574">
+        <v>36</v>
+      </c>
+      <c r="N574">
+        <v>1699</v>
+      </c>
+      <c r="O574">
+        <v>1180</v>
+      </c>
+      <c r="P574">
+        <v>6</v>
+      </c>
+      <c r="Q574">
+        <v>4</v>
+      </c>
+      <c r="R574">
+        <v>4</v>
+      </c>
+      <c r="S574">
+        <v>1</v>
+      </c>
+      <c r="Z574">
+        <v>1</v>
+      </c>
+      <c r="AA574">
+        <v>0</v>
+      </c>
+      <c r="AB574" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC574">
+        <v>2</v>
+      </c>
+      <c r="AD574">
+        <v>1.8</v>
+      </c>
+      <c r="AE574">
+        <v>2.17</v>
+      </c>
+      <c r="AF574">
+        <v>1.78</v>
+      </c>
+      <c r="AG574">
+        <v>2.17</v>
+      </c>
+      <c r="AH574">
+        <v>1.85</v>
+      </c>
+      <c r="AI574">
+        <v>2.02</v>
+      </c>
+      <c r="AJ574">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="575" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>17</v>
+      </c>
+      <c r="B575" t="s">
+        <v>268</v>
+      </c>
+      <c r="C575" t="s">
+        <v>269</v>
+      </c>
+      <c r="D575" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E575" t="s">
+        <v>250</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G575" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H575" t="s">
+        <v>78</v>
+      </c>
+      <c r="I575">
+        <v>3</v>
+      </c>
+      <c r="J575" t="s">
+        <v>110</v>
+      </c>
+      <c r="K575" t="s">
+        <v>54</v>
+      </c>
+      <c r="L575">
+        <v>5</v>
+      </c>
+      <c r="M575">
+        <v>33</v>
+      </c>
+      <c r="N575">
+        <v>5110</v>
+      </c>
+      <c r="O575">
+        <v>1245</v>
+      </c>
+      <c r="P575">
+        <v>6</v>
+      </c>
+      <c r="Q575">
+        <v>4</v>
+      </c>
+      <c r="R575">
+        <v>4</v>
+      </c>
+      <c r="S575">
+        <v>3</v>
+      </c>
+      <c r="Z575">
+        <v>1</v>
+      </c>
+      <c r="AA575">
+        <v>0</v>
+      </c>
+      <c r="AB575" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC575">
+        <v>1.4</v>
+      </c>
+      <c r="AD575">
+        <v>3</v>
+      </c>
+      <c r="AE575">
+        <v>1.43</v>
+      </c>
+      <c r="AF575">
+        <v>3.08</v>
+      </c>
+      <c r="AG575">
+        <v>1.44</v>
+      </c>
+      <c r="AH575">
+        <v>3.19</v>
+      </c>
+      <c r="AI575">
+        <v>1.4</v>
+      </c>
+      <c r="AJ575">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="576" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>17</v>
+      </c>
+      <c r="B576" t="s">
+        <v>268</v>
+      </c>
+      <c r="C576" t="s">
+        <v>269</v>
+      </c>
+      <c r="D576" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E576" t="s">
+        <v>250</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G576" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H576" t="s">
+        <v>78</v>
+      </c>
+      <c r="I576">
+        <v>3</v>
+      </c>
+      <c r="J576" t="s">
+        <v>161</v>
+      </c>
+      <c r="K576" t="s">
+        <v>163</v>
+      </c>
+      <c r="L576">
+        <v>4</v>
+      </c>
+      <c r="M576">
+        <v>24</v>
+      </c>
+      <c r="N576">
+        <v>8015</v>
+      </c>
+      <c r="O576">
+        <v>1540</v>
+      </c>
+      <c r="P576">
+        <v>6</v>
+      </c>
+      <c r="Q576">
+        <v>2</v>
+      </c>
+      <c r="R576">
+        <v>6</v>
+      </c>
+      <c r="S576">
+        <v>3</v>
+      </c>
+      <c r="Z576">
+        <v>2</v>
+      </c>
+      <c r="AA576">
+        <v>0</v>
+      </c>
+      <c r="AB576" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC576">
+        <v>1.2</v>
+      </c>
+      <c r="AD576">
+        <v>4.5</v>
+      </c>
+      <c r="AE576">
+        <v>1.22</v>
+      </c>
+      <c r="AF576">
+        <v>4.93</v>
+      </c>
+      <c r="AG576">
+        <v>1.22</v>
+      </c>
+      <c r="AH576">
+        <v>4.93</v>
+      </c>
+      <c r="AI576">
+        <v>1.2</v>
+      </c>
+      <c r="AJ576">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="577" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>17</v>
+      </c>
+      <c r="B577" t="s">
+        <v>268</v>
+      </c>
+      <c r="C577" t="s">
+        <v>269</v>
+      </c>
+      <c r="D577" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E577" t="s">
+        <v>250</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G577" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H577" t="s">
+        <v>78</v>
+      </c>
+      <c r="I577">
+        <v>3</v>
+      </c>
+      <c r="J577" t="s">
+        <v>74</v>
+      </c>
+      <c r="K577" t="s">
+        <v>179</v>
+      </c>
+      <c r="L577">
+        <v>18</v>
+      </c>
+      <c r="M577">
+        <v>8</v>
+      </c>
+      <c r="N577">
+        <v>1990</v>
+      </c>
+      <c r="O577">
+        <v>3395</v>
+      </c>
+      <c r="P577">
+        <v>3</v>
+      </c>
+      <c r="Q577">
+        <v>6</v>
+      </c>
+      <c r="R577">
+        <v>7</v>
+      </c>
+      <c r="S577">
+        <v>6</v>
+      </c>
+      <c r="T577">
+        <v>6</v>
+      </c>
+      <c r="U577">
+        <v>3</v>
+      </c>
+      <c r="Z577">
+        <v>2</v>
+      </c>
+      <c r="AA577">
+        <v>1</v>
+      </c>
+      <c r="AB577" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC577">
+        <v>2.1</v>
+      </c>
+      <c r="AD577">
+        <v>1.73</v>
+      </c>
+      <c r="AE577">
+        <v>2.23</v>
+      </c>
+      <c r="AF577">
+        <v>1.74</v>
+      </c>
+      <c r="AG577">
+        <v>2.25</v>
+      </c>
+      <c r="AH577">
+        <v>1.74</v>
+      </c>
+      <c r="AI577">
+        <v>2.12</v>
+      </c>
+      <c r="AJ577">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>17</v>
+      </c>
+      <c r="B578" t="s">
+        <v>268</v>
+      </c>
+      <c r="C578" t="s">
+        <v>269</v>
+      </c>
+      <c r="D578" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E578" t="s">
+        <v>250</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G578" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H578" t="s">
+        <v>79</v>
+      </c>
+      <c r="I578">
+        <v>3</v>
+      </c>
+      <c r="J578" t="s">
+        <v>123</v>
+      </c>
+      <c r="K578" t="s">
+        <v>110</v>
+      </c>
+      <c r="L578">
+        <v>23</v>
+      </c>
+      <c r="M578">
+        <v>5</v>
+      </c>
+      <c r="N578">
+        <v>1699</v>
+      </c>
+      <c r="O578">
+        <v>5110</v>
+      </c>
+      <c r="P578">
+        <v>6</v>
+      </c>
+      <c r="Q578">
+        <v>7</v>
+      </c>
+      <c r="R578">
+        <v>7</v>
+      </c>
+      <c r="S578">
+        <v>6</v>
+      </c>
+      <c r="T578">
+        <v>6</v>
+      </c>
+      <c r="U578">
+        <v>5</v>
+      </c>
+      <c r="Z578">
+        <v>1</v>
+      </c>
+      <c r="AA578">
+        <v>1</v>
+      </c>
+      <c r="AB578" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC578">
+        <v>3.75</v>
+      </c>
+      <c r="AD578">
+        <v>1.29</v>
+      </c>
+      <c r="AE578">
+        <v>4.09</v>
+      </c>
+      <c r="AF578">
+        <v>1.3</v>
+      </c>
+      <c r="AG578">
+        <v>4.09</v>
+      </c>
+      <c r="AH578">
+        <v>1.31</v>
+      </c>
+      <c r="AI578">
+        <v>3.62</v>
+      </c>
+      <c r="AJ578">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="579" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>17</v>
+      </c>
+      <c r="B579" t="s">
+        <v>268</v>
+      </c>
+      <c r="C579" t="s">
+        <v>269</v>
+      </c>
+      <c r="D579" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E579" t="s">
+        <v>250</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G579" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H579" t="s">
+        <v>79</v>
+      </c>
+      <c r="I579">
+        <v>3</v>
+      </c>
+      <c r="J579" t="s">
+        <v>74</v>
+      </c>
+      <c r="K579" t="s">
+        <v>161</v>
+      </c>
+      <c r="L579">
+        <v>18</v>
+      </c>
+      <c r="M579">
+        <v>4</v>
+      </c>
+      <c r="N579">
+        <v>1990</v>
+      </c>
+      <c r="O579">
+        <v>8015</v>
+      </c>
+      <c r="P579">
+        <v>7</v>
+      </c>
+      <c r="Q579">
+        <v>5</v>
+      </c>
+      <c r="R579">
+        <v>6</v>
+      </c>
+      <c r="S579">
+        <v>3</v>
+      </c>
+      <c r="Z579">
+        <v>2</v>
+      </c>
+      <c r="AA579">
+        <v>0</v>
+      </c>
+      <c r="AB579" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC579">
+        <v>3</v>
+      </c>
+      <c r="AD579">
+        <v>1.4</v>
+      </c>
+      <c r="AE579">
+        <v>3.05</v>
+      </c>
+      <c r="AF579">
+        <v>1.43</v>
+      </c>
+      <c r="AG579">
+        <v>3.1</v>
+      </c>
+      <c r="AH579">
+        <v>1.43</v>
+      </c>
+      <c r="AI579">
+        <v>2.94</v>
+      </c>
+      <c r="AJ579">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="580" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>17</v>
+      </c>
+      <c r="B580" t="s">
+        <v>268</v>
+      </c>
+      <c r="C580" t="s">
+        <v>269</v>
+      </c>
+      <c r="D580" s="2">
+        <v>45353</v>
+      </c>
+      <c r="E580" t="s">
+        <v>250</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G580" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H580" t="s">
+        <v>80</v>
+      </c>
+      <c r="I580">
+        <v>3</v>
+      </c>
+      <c r="J580" t="s">
+        <v>74</v>
+      </c>
+      <c r="K580" t="s">
+        <v>123</v>
+      </c>
+      <c r="L580">
+        <v>18</v>
+      </c>
+      <c r="M580">
+        <v>23</v>
+      </c>
+      <c r="N580">
+        <v>1990</v>
+      </c>
+      <c r="O580">
+        <v>1699</v>
+      </c>
+      <c r="P580">
+        <v>6</v>
+      </c>
+      <c r="Q580">
+        <v>4</v>
+      </c>
+      <c r="R580">
+        <v>6</v>
+      </c>
+      <c r="S580">
+        <v>3</v>
+      </c>
+      <c r="Z580">
+        <v>2</v>
+      </c>
+      <c r="AA580">
+        <v>0</v>
+      </c>
+      <c r="AB580" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC580">
+        <v>1.4</v>
+      </c>
+      <c r="AD580">
+        <v>3</v>
+      </c>
+      <c r="AE580">
+        <v>1.43</v>
+      </c>
+      <c r="AF580">
+        <v>3.08</v>
+      </c>
+      <c r="AG580">
+        <v>1.44</v>
+      </c>
+      <c r="AH580">
+        <v>3.08</v>
+      </c>
+      <c r="AI580">
+        <v>1.4</v>
+      </c>
+      <c r="AJ580">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="581" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>18</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D581" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E581" t="s">
+        <v>38</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G581" t="s">
+        <v>213</v>
+      </c>
+      <c r="H581" t="s">
+        <v>41</v>
+      </c>
+      <c r="I581">
+        <v>3</v>
+      </c>
+      <c r="J581" t="s">
+        <v>204</v>
+      </c>
+      <c r="K581" t="s">
+        <v>273</v>
+      </c>
+      <c r="L581">
+        <v>101</v>
+      </c>
+      <c r="M581">
+        <v>224</v>
+      </c>
+      <c r="N581">
+        <v>596</v>
+      </c>
+      <c r="O581">
+        <v>271</v>
+      </c>
+      <c r="P581">
+        <v>6</v>
+      </c>
+      <c r="Q581">
+        <v>4</v>
+      </c>
+      <c r="R581">
+        <v>6</v>
+      </c>
+      <c r="S581">
+        <v>1</v>
+      </c>
+      <c r="Z581">
+        <v>2</v>
+      </c>
+      <c r="AA581">
+        <v>0</v>
+      </c>
+      <c r="AB581" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC581">
+        <v>1.5</v>
+      </c>
+      <c r="AD581">
+        <v>2.63</v>
+      </c>
+      <c r="AE581">
+        <v>1.45</v>
+      </c>
+      <c r="AF581">
+        <v>2.95</v>
+      </c>
+      <c r="AG581">
+        <v>1.5</v>
+      </c>
+      <c r="AH581">
+        <v>3.03</v>
+      </c>
+      <c r="AI581">
+        <v>1.44</v>
+      </c>
+      <c r="AJ581">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="582" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>18</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D582" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E582" t="s">
+        <v>38</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G582" t="s">
+        <v>213</v>
+      </c>
+      <c r="H582" t="s">
+        <v>41</v>
+      </c>
+      <c r="I582">
+        <v>3</v>
+      </c>
+      <c r="J582" t="s">
+        <v>173</v>
+      </c>
+      <c r="K582" t="s">
+        <v>274</v>
+      </c>
+      <c r="L582">
+        <v>88</v>
+      </c>
+      <c r="M582">
+        <v>135</v>
+      </c>
+      <c r="N582">
+        <v>678</v>
+      </c>
+      <c r="O582">
+        <v>473</v>
+      </c>
+      <c r="P582">
+        <v>6</v>
+      </c>
+      <c r="Q582">
+        <v>1</v>
+      </c>
+      <c r="R582">
+        <v>7</v>
+      </c>
+      <c r="S582">
+        <v>6</v>
+      </c>
+      <c r="Z582">
+        <v>2</v>
+      </c>
+      <c r="AA582">
+        <v>0</v>
+      </c>
+      <c r="AB582" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC582">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD582">
+        <v>1.67</v>
+      </c>
+      <c r="AE582">
+        <v>2.13</v>
+      </c>
+      <c r="AF582">
+        <v>1.79</v>
+      </c>
+      <c r="AG582">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AH582">
+        <v>1.8</v>
+      </c>
+      <c r="AI582">
+        <v>2.14</v>
+      </c>
+      <c r="AJ582">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="583" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>18</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D583" s="2">
+        <v>45348</v>
+      </c>
+      <c r="E583" t="s">
+        <v>38</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G583" t="s">
+        <v>213</v>
+      </c>
+      <c r="H583" t="s">
+        <v>41</v>
+      </c>
+      <c r="I583">
+        <v>3</v>
+      </c>
+      <c r="J583" t="s">
+        <v>119</v>
+      </c>
+      <c r="K583" t="s">
+        <v>94</v>
+      </c>
+      <c r="L583">
+        <v>52</v>
+      </c>
+      <c r="M583">
+        <v>78</v>
+      </c>
+      <c r="N583">
+        <v>948</v>
+      </c>
+      <c r="O583">
+        <v>754</v>
+      </c>
+      <c r="P583">
+        <v>5</v>
+      </c>
+      <c r="Q583">
+        <v>7</v>
+      </c>
+      <c r="R583">
+        <v>6</v>
+      </c>
+      <c r="S583">
+        <v>3</v>
+      </c>
+      <c r="T583">
+        <v>7</v>
+      </c>
+      <c r="U583">
+        <v>6</v>
+      </c>
+      <c r="Z583">
+        <v>2</v>
+      </c>
+      <c r="AA583">
+        <v>1</v>
+      </c>
+      <c r="AB583" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC583">
+        <v>1.44</v>
+      </c>
+      <c r="AD583">
+        <v>2.75</v>
+      </c>
+      <c r="AE583">
+        <v>1.46</v>
+      </c>
+      <c r="AF583">
+        <v>2.9</v>
+      </c>
+      <c r="AG583">
+        <v>1.47</v>
+      </c>
+      <c r="AH583">
+        <v>2.9</v>
+      </c>
+      <c r="AI583">
+        <v>1.45</v>
+      </c>
+      <c r="AJ583">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>18</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D584" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E584" t="s">
+        <v>38</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G584" t="s">
+        <v>213</v>
+      </c>
+      <c r="H584" t="s">
+        <v>41</v>
+      </c>
+      <c r="I584">
+        <v>3</v>
+      </c>
+      <c r="J584" t="s">
+        <v>262</v>
+      </c>
+      <c r="K584" t="s">
+        <v>135</v>
+      </c>
+      <c r="L584">
+        <v>140</v>
+      </c>
+      <c r="M584">
+        <v>66</v>
+      </c>
+      <c r="N584">
+        <v>464</v>
+      </c>
+      <c r="O584">
+        <v>851</v>
+      </c>
+      <c r="P584">
+        <v>6</v>
+      </c>
+      <c r="Q584">
+        <v>3</v>
+      </c>
+      <c r="R584">
+        <v>5</v>
+      </c>
+      <c r="S584">
+        <v>7</v>
+      </c>
+      <c r="T584">
+        <v>6</v>
+      </c>
+      <c r="U584">
+        <v>2</v>
+      </c>
+      <c r="Z584">
+        <v>2</v>
+      </c>
+      <c r="AA584">
+        <v>1</v>
+      </c>
+      <c r="AB584" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC584">
+        <v>2</v>
+      </c>
+      <c r="AD584">
+        <v>1.8</v>
+      </c>
+      <c r="AE584">
+        <v>2.06</v>
+      </c>
+      <c r="AF584">
+        <v>1.84</v>
+      </c>
+      <c r="AG584">
+        <v>2.06</v>
+      </c>
+      <c r="AH584">
+        <v>1.84</v>
+      </c>
+      <c r="AI584">
+        <v>1.99</v>
+      </c>
+      <c r="AJ584">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="585" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>18</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D585" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E585" t="s">
+        <v>38</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G585" t="s">
+        <v>213</v>
+      </c>
+      <c r="H585" t="s">
+        <v>41</v>
+      </c>
+      <c r="I585">
+        <v>3</v>
+      </c>
+      <c r="J585" t="s">
+        <v>118</v>
+      </c>
+      <c r="K585" t="s">
+        <v>221</v>
+      </c>
+      <c r="L585">
+        <v>73</v>
+      </c>
+      <c r="M585">
+        <v>159</v>
+      </c>
+      <c r="N585">
+        <v>802</v>
+      </c>
+      <c r="O585">
+        <v>397</v>
+      </c>
+      <c r="P585">
+        <v>6</v>
+      </c>
+      <c r="Q585">
+        <v>4</v>
+      </c>
+      <c r="R585">
+        <v>6</v>
+      </c>
+      <c r="S585">
+        <v>4</v>
+      </c>
+      <c r="Z585">
+        <v>2</v>
+      </c>
+      <c r="AA585">
+        <v>0</v>
+      </c>
+      <c r="AB585" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC585">
+        <v>1.53</v>
+      </c>
+      <c r="AD585">
+        <v>2.5</v>
+      </c>
+      <c r="AE585">
+        <v>1.61</v>
+      </c>
+      <c r="AF585">
+        <v>2.44</v>
+      </c>
+      <c r="AG585">
+        <v>1.61</v>
+      </c>
+      <c r="AH585">
+        <v>2.5</v>
+      </c>
+      <c r="AI585">
+        <v>1.56</v>
+      </c>
+      <c r="AJ585">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="586" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>18</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D586" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E586" t="s">
+        <v>38</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G586" t="s">
+        <v>213</v>
+      </c>
+      <c r="H586" t="s">
+        <v>41</v>
+      </c>
+      <c r="I586">
+        <v>3</v>
+      </c>
+      <c r="J586" t="s">
+        <v>215</v>
+      </c>
+      <c r="K586" t="s">
+        <v>53</v>
+      </c>
+      <c r="L586">
+        <v>161</v>
+      </c>
+      <c r="M586">
+        <v>49</v>
+      </c>
+      <c r="N586">
+        <v>393</v>
+      </c>
+      <c r="O586">
+        <v>967</v>
+      </c>
+      <c r="P586">
+        <v>3</v>
+      </c>
+      <c r="Q586">
+        <v>6</v>
+      </c>
+      <c r="R586">
+        <v>6</v>
+      </c>
+      <c r="S586">
+        <v>3</v>
+      </c>
+      <c r="T586">
+        <v>7</v>
+      </c>
+      <c r="U586">
+        <v>5</v>
+      </c>
+      <c r="Z586">
+        <v>2</v>
+      </c>
+      <c r="AA586">
+        <v>1</v>
+      </c>
+      <c r="AB586" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC586">
+        <v>2.38</v>
+      </c>
+      <c r="AD586">
+        <v>1.57</v>
+      </c>
+      <c r="AE586">
+        <v>2.44</v>
+      </c>
+      <c r="AF586">
+        <v>1.62</v>
+      </c>
+      <c r="AG586">
+        <v>2.44</v>
+      </c>
+      <c r="AH586">
+        <v>1.62</v>
+      </c>
+      <c r="AI586">
+        <v>2.35</v>
+      </c>
+      <c r="AJ586">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="587" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>18</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D587" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E587" t="s">
+        <v>38</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G587" t="s">
+        <v>213</v>
+      </c>
+      <c r="H587" t="s">
+        <v>41</v>
+      </c>
+      <c r="I587">
+        <v>3</v>
+      </c>
+      <c r="J587" t="s">
+        <v>144</v>
+      </c>
+      <c r="K587" t="s">
+        <v>115</v>
+      </c>
+      <c r="L587">
+        <v>70</v>
+      </c>
+      <c r="M587">
+        <v>143</v>
+      </c>
+      <c r="N587">
+        <v>816</v>
+      </c>
+      <c r="O587">
+        <v>457</v>
+      </c>
+      <c r="P587">
+        <v>6</v>
+      </c>
+      <c r="Q587">
+        <v>4</v>
+      </c>
+      <c r="R587">
+        <v>6</v>
+      </c>
+      <c r="S587">
+        <v>1</v>
+      </c>
+      <c r="Z587">
+        <v>2</v>
+      </c>
+      <c r="AA587">
+        <v>0</v>
+      </c>
+      <c r="AB587" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC587">
+        <v>1.44</v>
+      </c>
+      <c r="AD587">
+        <v>2.75</v>
+      </c>
+      <c r="AE587">
+        <v>1.49</v>
+      </c>
+      <c r="AF587">
+        <v>2.78</v>
+      </c>
+      <c r="AG587">
+        <v>1.53</v>
+      </c>
+      <c r="AH587">
+        <v>2.82</v>
+      </c>
+      <c r="AI587">
+        <v>1.46</v>
+      </c>
+      <c r="AJ587">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="588" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>18</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D588" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E588" t="s">
+        <v>38</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G588" t="s">
+        <v>213</v>
+      </c>
+      <c r="H588" t="s">
+        <v>41</v>
+      </c>
+      <c r="I588">
+        <v>3</v>
+      </c>
+      <c r="J588" t="s">
+        <v>188</v>
+      </c>
+      <c r="K588" t="s">
+        <v>216</v>
+      </c>
+      <c r="L588">
+        <v>104</v>
+      </c>
+      <c r="M588">
+        <v>157</v>
+      </c>
+      <c r="N588">
+        <v>583</v>
+      </c>
+      <c r="O588">
+        <v>399</v>
+      </c>
+      <c r="P588">
+        <v>6</v>
+      </c>
+      <c r="Q588">
+        <v>3</v>
+      </c>
+      <c r="R588">
+        <v>6</v>
+      </c>
+      <c r="S588">
+        <v>2</v>
+      </c>
+      <c r="Z588">
+        <v>2</v>
+      </c>
+      <c r="AA588">
+        <v>0</v>
+      </c>
+      <c r="AB588" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC588">
+        <v>2.1</v>
+      </c>
+      <c r="AD588">
+        <v>1.73</v>
+      </c>
+      <c r="AE588">
+        <v>2.14</v>
+      </c>
+      <c r="AF588">
+        <v>1.78</v>
+      </c>
+      <c r="AG588">
+        <v>2.14</v>
+      </c>
+      <c r="AH588">
+        <v>1.78</v>
+      </c>
+      <c r="AI588">
+        <v>2.08</v>
+      </c>
+      <c r="AJ588">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="589" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>18</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D589" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E589" t="s">
+        <v>38</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G589" t="s">
+        <v>213</v>
+      </c>
+      <c r="H589" t="s">
+        <v>41</v>
+      </c>
+      <c r="I589">
+        <v>3</v>
+      </c>
+      <c r="J589" t="s">
+        <v>224</v>
+      </c>
+      <c r="K589" t="s">
+        <v>265</v>
+      </c>
+      <c r="L589">
+        <v>100</v>
+      </c>
+      <c r="M589">
+        <v>343</v>
+      </c>
+      <c r="N589">
+        <v>598</v>
+      </c>
+      <c r="O589">
+        <v>149</v>
+      </c>
+      <c r="P589">
+        <v>7</v>
+      </c>
+      <c r="Q589">
+        <v>5</v>
+      </c>
+      <c r="R589">
+        <v>7</v>
+      </c>
+      <c r="S589">
+        <v>6</v>
+      </c>
+      <c r="Z589">
+        <v>2</v>
+      </c>
+      <c r="AA589">
+        <v>0</v>
+      </c>
+      <c r="AB589" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC589">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD589">
+        <v>1.67</v>
+      </c>
+      <c r="AE589">
+        <v>2.25</v>
+      </c>
+      <c r="AF589">
+        <v>1.71</v>
+      </c>
+      <c r="AG589">
+        <v>2.25</v>
+      </c>
+      <c r="AH589">
+        <v>1.73</v>
+      </c>
+      <c r="AI589">
+        <v>2.15</v>
+      </c>
+      <c r="AJ589">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="590" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>18</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D590" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E590" t="s">
+        <v>38</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G590" t="s">
+        <v>213</v>
+      </c>
+      <c r="H590" t="s">
+        <v>41</v>
+      </c>
+      <c r="I590">
+        <v>3</v>
+      </c>
+      <c r="J590" t="s">
+        <v>223</v>
+      </c>
+      <c r="K590" t="s">
+        <v>225</v>
+      </c>
+      <c r="L590">
+        <v>119</v>
+      </c>
+      <c r="M590">
+        <v>114</v>
+      </c>
+      <c r="N590">
+        <v>537</v>
+      </c>
+      <c r="O590">
+        <v>552</v>
+      </c>
+      <c r="P590">
+        <v>6</v>
+      </c>
+      <c r="Q590">
+        <v>2</v>
+      </c>
+      <c r="R590">
+        <v>3</v>
+      </c>
+      <c r="S590">
+        <v>6</v>
+      </c>
+      <c r="T590">
+        <v>6</v>
+      </c>
+      <c r="U590">
+        <v>1</v>
+      </c>
+      <c r="Z590">
+        <v>2</v>
+      </c>
+      <c r="AA590">
+        <v>1</v>
+      </c>
+      <c r="AB590" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC590">
+        <v>1.73</v>
+      </c>
+      <c r="AD590">
+        <v>2.1</v>
+      </c>
+      <c r="AE590">
+        <v>1.8</v>
+      </c>
+      <c r="AF590">
+        <v>2.11</v>
+      </c>
+      <c r="AG590">
+        <v>1.86</v>
+      </c>
+      <c r="AH590">
+        <v>2.12</v>
+      </c>
+      <c r="AI590">
+        <v>1.78</v>
+      </c>
+      <c r="AJ590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>18</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D591" s="2">
+        <v>45349</v>
+      </c>
+      <c r="E591" t="s">
+        <v>38</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G591" t="s">
+        <v>213</v>
+      </c>
+      <c r="H591" t="s">
+        <v>41</v>
+      </c>
+      <c r="I591">
+        <v>3</v>
+      </c>
+      <c r="J591" t="s">
+        <v>219</v>
+      </c>
+      <c r="K591" t="s">
+        <v>148</v>
+      </c>
+      <c r="L591">
+        <v>111</v>
+      </c>
+      <c r="M591">
+        <v>83</v>
+      </c>
+      <c r="N591">
+        <v>563</v>
+      </c>
+      <c r="O591">
+        <v>710</v>
+      </c>
+      <c r="P591">
+        <v>7</v>
+      </c>
+      <c r="Q591">
+        <v>6</v>
+      </c>
+      <c r="R591">
+        <v>7</v>
+      </c>
+      <c r="S591">
+        <v>5</v>
+      </c>
+      <c r="Z591">
+        <v>2</v>
+      </c>
+      <c r="AA591">
+        <v>0</v>
+      </c>
+      <c r="AB591" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC591">
+        <v>3</v>
+      </c>
+      <c r="AD591">
+        <v>1.4</v>
+      </c>
+      <c r="AE591">
+        <v>3.04</v>
+      </c>
+      <c r="AF591">
+        <v>1.43</v>
+      </c>
+      <c r="AG591">
+        <v>3.04</v>
+      </c>
+      <c r="AH591">
+        <v>1.45</v>
+      </c>
+      <c r="AI591">
+        <v>2.86</v>
+      </c>
+      <c r="AJ591">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="592" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>18</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D592" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E592" t="s">
+        <v>38</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G592" t="s">
+        <v>213</v>
+      </c>
+      <c r="H592" t="s">
+        <v>41</v>
+      </c>
+      <c r="I592">
+        <v>3</v>
+      </c>
+      <c r="J592" t="s">
+        <v>218</v>
+      </c>
+      <c r="K592" t="s">
+        <v>214</v>
+      </c>
+      <c r="L592">
+        <v>80</v>
+      </c>
+      <c r="M592">
+        <v>148</v>
+      </c>
+      <c r="N592">
+        <v>747</v>
+      </c>
+      <c r="O592">
+        <v>447</v>
+      </c>
+      <c r="P592">
+        <v>7</v>
+      </c>
+      <c r="Q592">
+        <v>6</v>
+      </c>
+      <c r="R592">
+        <v>6</v>
+      </c>
+      <c r="S592">
+        <v>7</v>
+      </c>
+      <c r="T592">
+        <v>7</v>
+      </c>
+      <c r="U592">
+        <v>6</v>
+      </c>
+      <c r="Z592">
+        <v>2</v>
+      </c>
+      <c r="AA592">
+        <v>1</v>
+      </c>
+      <c r="AB592" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC592">
+        <v>1.53</v>
+      </c>
+      <c r="AD592">
+        <v>2.5</v>
+      </c>
+      <c r="AE592">
+        <v>1.54</v>
+      </c>
+      <c r="AF592">
+        <v>2.62</v>
+      </c>
+      <c r="AG592">
+        <v>1.54</v>
+      </c>
+      <c r="AH592">
+        <v>2.65</v>
+      </c>
+      <c r="AI592">
+        <v>1.5</v>
+      </c>
+      <c r="AJ592">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="593" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>18</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D593" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E593" t="s">
+        <v>38</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G593" t="s">
+        <v>213</v>
+      </c>
+      <c r="H593" t="s">
+        <v>76</v>
+      </c>
+      <c r="I593">
+        <v>3</v>
+      </c>
+      <c r="J593" t="s">
+        <v>204</v>
+      </c>
+      <c r="K593" t="s">
+        <v>119</v>
+      </c>
+      <c r="L593">
+        <v>101</v>
+      </c>
+      <c r="M593">
+        <v>52</v>
+      </c>
+      <c r="N593">
+        <v>596</v>
+      </c>
+      <c r="O593">
+        <v>948</v>
+      </c>
+      <c r="P593">
+        <v>7</v>
+      </c>
+      <c r="Q593">
+        <v>6</v>
+      </c>
+      <c r="R593">
+        <v>6</v>
+      </c>
+      <c r="S593">
+        <v>7</v>
+      </c>
+      <c r="T593">
+        <v>6</v>
+      </c>
+      <c r="U593">
+        <v>1</v>
+      </c>
+      <c r="Z593">
+        <v>2</v>
+      </c>
+      <c r="AA593">
+        <v>1</v>
+      </c>
+      <c r="AB593" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC593">
+        <v>2.38</v>
+      </c>
+      <c r="AD593">
+        <v>1.57</v>
+      </c>
+      <c r="AE593">
+        <v>2.44</v>
+      </c>
+      <c r="AF593">
+        <v>1.63</v>
+      </c>
+      <c r="AG593">
+        <v>2.44</v>
+      </c>
+      <c r="AH593">
+        <v>1.63</v>
+      </c>
+      <c r="AI593">
+        <v>2.35</v>
+      </c>
+      <c r="AJ593">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="594" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>18</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D594" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E594" t="s">
+        <v>38</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G594" t="s">
+        <v>213</v>
+      </c>
+      <c r="H594" t="s">
+        <v>76</v>
+      </c>
+      <c r="I594">
+        <v>3</v>
+      </c>
+      <c r="J594" t="s">
+        <v>262</v>
+      </c>
+      <c r="K594" t="s">
+        <v>224</v>
+      </c>
+      <c r="L594">
+        <v>140</v>
+      </c>
+      <c r="M594">
+        <v>100</v>
+      </c>
+      <c r="N594">
+        <v>464</v>
+      </c>
+      <c r="O594">
+        <v>598</v>
+      </c>
+      <c r="P594">
+        <v>6</v>
+      </c>
+      <c r="Q594">
+        <v>3</v>
+      </c>
+      <c r="R594">
+        <v>6</v>
+      </c>
+      <c r="S594">
+        <v>7</v>
+      </c>
+      <c r="T594">
+        <v>6</v>
+      </c>
+      <c r="U594">
+        <v>2</v>
+      </c>
+      <c r="Z594">
+        <v>2</v>
+      </c>
+      <c r="AA594">
+        <v>1</v>
+      </c>
+      <c r="AB594" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC594">
+        <v>1.73</v>
+      </c>
+      <c r="AD594">
+        <v>2.1</v>
+      </c>
+      <c r="AE594">
+        <v>1.61</v>
+      </c>
+      <c r="AF594">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AG594">
+        <v>1.74</v>
+      </c>
+      <c r="AH594">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AI594">
+        <v>1.65</v>
+      </c>
+      <c r="AJ594">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>18</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D595" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E595" t="s">
+        <v>38</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G595" t="s">
+        <v>213</v>
+      </c>
+      <c r="H595" t="s">
+        <v>76</v>
+      </c>
+      <c r="I595">
+        <v>3</v>
+      </c>
+      <c r="J595" t="s">
+        <v>103</v>
+      </c>
+      <c r="K595" t="s">
+        <v>118</v>
+      </c>
+      <c r="L595">
+        <v>44</v>
+      </c>
+      <c r="M595">
+        <v>73</v>
+      </c>
+      <c r="N595">
+        <v>1028</v>
+      </c>
+      <c r="O595">
+        <v>802</v>
+      </c>
+      <c r="P595">
+        <v>6</v>
+      </c>
+      <c r="Q595">
+        <v>3</v>
+      </c>
+      <c r="R595">
+        <v>6</v>
+      </c>
+      <c r="S595">
+        <v>3</v>
+      </c>
+      <c r="Z595">
+        <v>2</v>
+      </c>
+      <c r="AA595">
+        <v>0</v>
+      </c>
+      <c r="AB595" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC595">
+        <v>1.73</v>
+      </c>
+      <c r="AD595">
+        <v>2.1</v>
+      </c>
+      <c r="AE595">
+        <v>1.78</v>
+      </c>
+      <c r="AF595">
+        <v>2.16</v>
+      </c>
+      <c r="AG595">
+        <v>1.85</v>
+      </c>
+      <c r="AH595">
+        <v>2.16</v>
+      </c>
+      <c r="AI595">
+        <v>1.77</v>
+      </c>
+      <c r="AJ595">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="596" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>18</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D596" s="2">
+        <v>45350</v>
+      </c>
+      <c r="E596" t="s">
+        <v>38</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G596" t="s">
+        <v>213</v>
+      </c>
+      <c r="H596" t="s">
+        <v>76</v>
+      </c>
+      <c r="I596">
+        <v>3</v>
+      </c>
+      <c r="J596" t="s">
+        <v>126</v>
+      </c>
+      <c r="K596" t="s">
+        <v>173</v>
+      </c>
+      <c r="L596">
+        <v>22</v>
+      </c>
+      <c r="M596">
+        <v>88</v>
+      </c>
+      <c r="N596">
+        <v>1775</v>
+      </c>
+      <c r="O596">
+        <v>678</v>
+      </c>
+      <c r="P596">
+        <v>7</v>
+      </c>
+      <c r="Q596">
+        <v>6</v>
+      </c>
+      <c r="R596">
+        <v>6</v>
+      </c>
+      <c r="S596">
+        <v>2</v>
+      </c>
+      <c r="Z596">
+        <v>2</v>
+      </c>
+      <c r="AA596">
+        <v>0</v>
+      </c>
+      <c r="AB596" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC596">
+        <v>1.3</v>
+      </c>
+      <c r="AD596">
+        <v>3.5</v>
+      </c>
+      <c r="AE596">
+        <v>1.34</v>
+      </c>
+      <c r="AF596">
+        <v>3.58</v>
+      </c>
+      <c r="AG596">
+        <v>1.34</v>
+      </c>
+      <c r="AH596">
+        <v>3.6</v>
+      </c>
+      <c r="AI596">
+        <v>1.3</v>
+      </c>
+      <c r="AJ596">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="597" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>18</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D597" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E597" t="s">
+        <v>38</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G597" t="s">
+        <v>213</v>
+      </c>
+      <c r="H597" t="s">
+        <v>76</v>
+      </c>
+      <c r="I597">
+        <v>3</v>
+      </c>
+      <c r="J597" t="s">
+        <v>218</v>
+      </c>
+      <c r="K597" t="s">
+        <v>215</v>
+      </c>
+      <c r="L597">
+        <v>80</v>
+      </c>
+      <c r="M597">
+        <v>161</v>
+      </c>
+      <c r="N597">
+        <v>747</v>
+      </c>
+      <c r="O597">
+        <v>393</v>
+      </c>
+      <c r="P597">
+        <v>6</v>
+      </c>
+      <c r="Q597">
+        <v>3</v>
+      </c>
+      <c r="R597">
+        <v>3</v>
+      </c>
+      <c r="S597">
+        <v>6</v>
+      </c>
+      <c r="T597">
+        <v>6</v>
+      </c>
+      <c r="U597">
+        <v>3</v>
+      </c>
+      <c r="Z597">
+        <v>2</v>
+      </c>
+      <c r="AA597">
+        <v>1</v>
+      </c>
+      <c r="AB597" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC597">
+        <v>1.44</v>
+      </c>
+      <c r="AD597">
+        <v>2.75</v>
+      </c>
+      <c r="AE597">
+        <v>1.46</v>
+      </c>
+      <c r="AF597">
+        <v>2.94</v>
+      </c>
+      <c r="AG597">
+        <v>1.5</v>
+      </c>
+      <c r="AH597">
+        <v>2.94</v>
+      </c>
+      <c r="AI597">
+        <v>1.44</v>
+      </c>
+      <c r="AJ597">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="598" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>18</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D598" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E598" t="s">
+        <v>38</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G598" t="s">
+        <v>213</v>
+      </c>
+      <c r="H598" t="s">
+        <v>76</v>
+      </c>
+      <c r="I598">
+        <v>3</v>
+      </c>
+      <c r="J598" t="s">
+        <v>144</v>
+      </c>
+      <c r="K598" t="s">
+        <v>188</v>
+      </c>
+      <c r="L598">
+        <v>70</v>
+      </c>
+      <c r="M598">
+        <v>104</v>
+      </c>
+      <c r="N598">
+        <v>816</v>
+      </c>
+      <c r="O598">
+        <v>583</v>
+      </c>
+      <c r="P598">
+        <v>6</v>
+      </c>
+      <c r="Q598">
+        <v>3</v>
+      </c>
+      <c r="R598">
+        <v>6</v>
+      </c>
+      <c r="S598">
+        <v>1</v>
+      </c>
+      <c r="Z598">
+        <v>2</v>
+      </c>
+      <c r="AA598">
+        <v>0</v>
+      </c>
+      <c r="AB598" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC598">
+        <v>1.36</v>
+      </c>
+      <c r="AD598">
+        <v>3.2</v>
+      </c>
+      <c r="AE598">
+        <v>1.4</v>
+      </c>
+      <c r="AF598">
+        <v>3.22</v>
+      </c>
+      <c r="AG598">
+        <v>1.4</v>
+      </c>
+      <c r="AH598">
+        <v>3.22</v>
+      </c>
+      <c r="AI598">
+        <v>1.36</v>
+      </c>
+      <c r="AJ598">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="599" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>18</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D599" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E599" t="s">
+        <v>38</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G599" t="s">
+        <v>213</v>
+      </c>
+      <c r="H599" t="s">
+        <v>76</v>
+      </c>
+      <c r="I599">
+        <v>3</v>
+      </c>
+      <c r="J599" t="s">
+        <v>56</v>
+      </c>
+      <c r="K599" t="s">
+        <v>223</v>
+      </c>
+      <c r="L599">
+        <v>21</v>
+      </c>
+      <c r="M599">
+        <v>119</v>
+      </c>
+      <c r="N599">
+        <v>1825</v>
+      </c>
+      <c r="O599">
+        <v>537</v>
+      </c>
+      <c r="P599">
+        <v>4</v>
+      </c>
+      <c r="Q599">
+        <v>6</v>
+      </c>
+      <c r="R599">
+        <v>6</v>
+      </c>
+      <c r="S599">
+        <v>4</v>
+      </c>
+      <c r="T599">
+        <v>6</v>
+      </c>
+      <c r="U599">
+        <v>2</v>
+      </c>
+      <c r="Z599">
+        <v>2</v>
+      </c>
+      <c r="AA599">
+        <v>1</v>
+      </c>
+      <c r="AB599" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC599">
+        <v>1.29</v>
+      </c>
+      <c r="AD599">
+        <v>3.75</v>
+      </c>
+      <c r="AE599">
+        <v>1.28</v>
+      </c>
+      <c r="AF599">
+        <v>4.07</v>
+      </c>
+      <c r="AG599">
+        <v>1.3</v>
+      </c>
+      <c r="AH599">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AI599">
+        <v>1.25</v>
+      </c>
+      <c r="AJ599">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>18</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D600" s="2">
+        <v>45351</v>
+      </c>
+      <c r="E600" t="s">
+        <v>38</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G600" t="s">
+        <v>213</v>
+      </c>
+      <c r="H600" t="s">
+        <v>76</v>
+      </c>
+      <c r="I600">
+        <v>3</v>
+      </c>
+      <c r="J600" t="s">
+        <v>131</v>
+      </c>
+      <c r="K600" t="s">
+        <v>219</v>
+      </c>
+      <c r="L600">
+        <v>51</v>
+      </c>
+      <c r="M600">
+        <v>111</v>
+      </c>
+      <c r="N600">
+        <v>951</v>
+      </c>
+      <c r="O600">
+        <v>563</v>
+      </c>
+      <c r="P600">
+        <v>6</v>
+      </c>
+      <c r="Q600">
+        <v>2</v>
+      </c>
+      <c r="R600">
+        <v>7</v>
+      </c>
+      <c r="S600">
+        <v>5</v>
+      </c>
+      <c r="Z600">
+        <v>2</v>
+      </c>
+      <c r="AA600">
+        <v>0</v>
+      </c>
+      <c r="AB600" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC600">
+        <v>1.44</v>
+      </c>
+      <c r="AD600">
+        <v>2.75</v>
+      </c>
+      <c r="AE600">
+        <v>1.47</v>
+      </c>
+      <c r="AF600">
+        <v>2.91</v>
+      </c>
+      <c r="AG600">
+        <v>1.47</v>
+      </c>
+      <c r="AH600">
+        <v>2.91</v>
+      </c>
+      <c r="AI600">
+        <v>1.44</v>
+      </c>
+      <c r="AJ600">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="601" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>18</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D601" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E601" t="s">
+        <v>38</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G601" t="s">
+        <v>213</v>
+      </c>
+      <c r="H601" t="s">
+        <v>78</v>
+      </c>
+      <c r="I601">
+        <v>3</v>
+      </c>
+      <c r="J601" t="s">
+        <v>56</v>
+      </c>
+      <c r="K601" t="s">
+        <v>144</v>
+      </c>
+      <c r="L601">
+        <v>21</v>
+      </c>
+      <c r="M601">
+        <v>70</v>
+      </c>
+      <c r="N601">
+        <v>1825</v>
+      </c>
+      <c r="O601">
+        <v>816</v>
+      </c>
+      <c r="P601">
+        <v>6</v>
+      </c>
+      <c r="Q601">
+        <v>4</v>
+      </c>
+      <c r="R601">
+        <v>6</v>
+      </c>
+      <c r="S601">
+        <v>4</v>
+      </c>
+      <c r="Z601">
+        <v>2</v>
+      </c>
+      <c r="AA601">
+        <v>0</v>
+      </c>
+      <c r="AB601" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC601">
+        <v>1.5</v>
+      </c>
+      <c r="AD601">
+        <v>2.63</v>
+      </c>
+      <c r="AE601">
+        <v>1.54</v>
+      </c>
+      <c r="AF601">
+        <v>2.67</v>
+      </c>
+      <c r="AG601">
+        <v>1.54</v>
+      </c>
+      <c r="AH601">
+        <v>2.67</v>
+      </c>
+      <c r="AI601">
+        <v>1.5</v>
+      </c>
+      <c r="AJ601">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="602" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>18</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D602" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E602" t="s">
+        <v>38</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G602" t="s">
+        <v>213</v>
+      </c>
+      <c r="H602" t="s">
+        <v>78</v>
+      </c>
+      <c r="I602">
+        <v>3</v>
+      </c>
+      <c r="J602" t="s">
+        <v>204</v>
+      </c>
+      <c r="K602" t="s">
+        <v>103</v>
+      </c>
+      <c r="L602">
+        <v>101</v>
+      </c>
+      <c r="M602">
+        <v>44</v>
+      </c>
+      <c r="N602">
+        <v>596</v>
+      </c>
+      <c r="O602">
+        <v>1028</v>
+      </c>
+      <c r="P602">
+        <v>6</v>
+      </c>
+      <c r="Q602">
+        <v>3</v>
+      </c>
+      <c r="R602">
+        <v>6</v>
+      </c>
+      <c r="S602">
+        <v>7</v>
+      </c>
+      <c r="T602">
+        <v>6</v>
+      </c>
+      <c r="U602">
+        <v>2</v>
+      </c>
+      <c r="Z602">
+        <v>2</v>
+      </c>
+      <c r="AA602">
+        <v>1</v>
+      </c>
+      <c r="AB602" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC602">
+        <v>2.75</v>
+      </c>
+      <c r="AD602">
+        <v>1.44</v>
+      </c>
+      <c r="AE602">
+        <v>2.68</v>
+      </c>
+      <c r="AF602">
+        <v>1.54</v>
+      </c>
+      <c r="AG602">
+        <v>2.75</v>
+      </c>
+      <c r="AH602">
+        <v>1.54</v>
+      </c>
+      <c r="AI602">
+        <v>2.58</v>
+      </c>
+      <c r="AJ602">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="603" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>18</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D603" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E603" t="s">
+        <v>38</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G603" t="s">
+        <v>213</v>
+      </c>
+      <c r="H603" t="s">
+        <v>78</v>
+      </c>
+      <c r="I603">
+        <v>3</v>
+      </c>
+      <c r="J603" t="s">
+        <v>131</v>
+      </c>
+      <c r="K603" t="s">
+        <v>218</v>
+      </c>
+      <c r="L603">
+        <v>51</v>
+      </c>
+      <c r="M603">
+        <v>80</v>
+      </c>
+      <c r="N603">
+        <v>951</v>
+      </c>
+      <c r="O603">
+        <v>747</v>
+      </c>
+      <c r="P603">
+        <v>6</v>
+      </c>
+      <c r="Q603">
+        <v>0</v>
+      </c>
+      <c r="R603">
+        <v>7</v>
+      </c>
+      <c r="S603">
+        <v>5</v>
+      </c>
+      <c r="Z603">
+        <v>2</v>
+      </c>
+      <c r="AA603">
+        <v>0</v>
+      </c>
+      <c r="AB603" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC603">
+        <v>1.62</v>
+      </c>
+      <c r="AD603">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE603">
+        <v>1.75</v>
+      </c>
+      <c r="AF603">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AG603">
+        <v>1.75</v>
+      </c>
+      <c r="AH603">
+        <v>2.35</v>
+      </c>
+      <c r="AI603">
+        <v>1.66</v>
+      </c>
+      <c r="AJ603">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="604" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>18</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D604" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E604" t="s">
+        <v>38</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G604" t="s">
+        <v>213</v>
+      </c>
+      <c r="H604" t="s">
+        <v>78</v>
+      </c>
+      <c r="I604">
+        <v>3</v>
+      </c>
+      <c r="J604" t="s">
+        <v>262</v>
+      </c>
+      <c r="K604" t="s">
+        <v>126</v>
+      </c>
+      <c r="L604">
+        <v>140</v>
+      </c>
+      <c r="M604">
+        <v>22</v>
+      </c>
+      <c r="N604">
+        <v>464</v>
+      </c>
+      <c r="O604">
+        <v>1775</v>
+      </c>
+      <c r="P604">
+        <v>7</v>
+      </c>
+      <c r="Q604">
+        <v>6</v>
+      </c>
+      <c r="R604">
+        <v>7</v>
+      </c>
+      <c r="S604">
+        <v>6</v>
+      </c>
+      <c r="Z604">
+        <v>2</v>
+      </c>
+      <c r="AA604">
+        <v>0</v>
+      </c>
+      <c r="AB604" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC604">
+        <v>4.33</v>
+      </c>
+      <c r="AD604">
+        <v>1.22</v>
+      </c>
+      <c r="AE604">
+        <v>4.78</v>
+      </c>
+      <c r="AF604">
+        <v>1.23</v>
+      </c>
+      <c r="AG604">
+        <v>4.78</v>
+      </c>
+      <c r="AH604">
+        <v>1.23</v>
+      </c>
+      <c r="AI604">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AJ604">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="605" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>18</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D605" s="2">
+        <v>45353</v>
+      </c>
+      <c r="E605" t="s">
+        <v>38</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G605" t="s">
+        <v>213</v>
+      </c>
+      <c r="H605" t="s">
+        <v>79</v>
+      </c>
+      <c r="I605">
+        <v>3</v>
+      </c>
+      <c r="J605" t="s">
+        <v>131</v>
+      </c>
+      <c r="K605" t="s">
+        <v>262</v>
+      </c>
+      <c r="L605">
+        <v>51</v>
+      </c>
+      <c r="M605">
+        <v>140</v>
+      </c>
+      <c r="N605">
+        <v>951</v>
+      </c>
+      <c r="O605">
+        <v>464</v>
+      </c>
+      <c r="P605">
+        <v>4</v>
+      </c>
+      <c r="Q605">
+        <v>6</v>
+      </c>
+      <c r="R605">
+        <v>6</v>
+      </c>
+      <c r="S605">
+        <v>4</v>
+      </c>
+      <c r="T605">
+        <v>7</v>
+      </c>
+      <c r="U605">
+        <v>5</v>
+      </c>
+      <c r="Z605">
+        <v>2</v>
+      </c>
+      <c r="AA605">
+        <v>1</v>
+      </c>
+      <c r="AB605" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC605">
+        <v>1.5</v>
+      </c>
+      <c r="AD605">
+        <v>2.63</v>
+      </c>
+      <c r="AE605">
+        <v>1.57</v>
+      </c>
+      <c r="AF605">
+        <v>2.58</v>
+      </c>
+      <c r="AG605">
+        <v>1.58</v>
+      </c>
+      <c r="AH605">
+        <v>2.63</v>
+      </c>
+      <c r="AI605">
+        <v>1.52</v>
+      </c>
+      <c r="AJ605">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>18</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D606" s="2">
+        <v>45354</v>
+      </c>
+      <c r="E606" t="s">
+        <v>38</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G606" t="s">
+        <v>213</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I606">
+        <v>3</v>
+      </c>
+      <c r="J606" t="s">
+        <v>56</v>
+      </c>
+      <c r="K606" t="s">
+        <v>204</v>
+      </c>
+      <c r="L606">
+        <v>21</v>
+      </c>
+      <c r="M606">
+        <v>101</v>
+      </c>
+      <c r="N606">
+        <v>1825</v>
+      </c>
+      <c r="O606">
+        <v>596</v>
+      </c>
+      <c r="P606">
+        <v>6</v>
+      </c>
+      <c r="Q606">
+        <v>4</v>
+      </c>
+      <c r="R606">
+        <v>6</v>
+      </c>
+      <c r="S606">
+        <v>2</v>
+      </c>
+      <c r="Z606">
+        <v>2</v>
+      </c>
+      <c r="AA606">
+        <v>0</v>
+      </c>
+      <c r="AB606" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC606">
+        <v>1.33</v>
+      </c>
+      <c r="AD606">
+        <v>3.4</v>
+      </c>
+      <c r="AE606">
+        <v>1.43</v>
+      </c>
+      <c r="AF606">
+        <v>3.07</v>
+      </c>
+      <c r="AG606">
+        <v>1.44</v>
+      </c>
+      <c r="AH606">
+        <v>3.4</v>
+      </c>
+      <c r="AI606">
+        <v>1.36</v>
+      </c>
+      <c r="AJ606">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="607" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>18</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D607" s="2">
+        <v>45354</v>
+      </c>
+      <c r="E607" t="s">
+        <v>38</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G607" t="s">
+        <v>213</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I607">
+        <v>3</v>
+      </c>
+      <c r="J607" t="s">
+        <v>56</v>
+      </c>
+      <c r="K607" t="s">
+        <v>131</v>
+      </c>
+      <c r="L607">
+        <v>21</v>
+      </c>
+      <c r="M607">
+        <v>51</v>
+      </c>
+      <c r="N607">
+        <v>1825</v>
+      </c>
+      <c r="O607">
+        <v>951</v>
+      </c>
+      <c r="P607">
+        <v>3</v>
+      </c>
+      <c r="Q607">
+        <v>6</v>
+      </c>
+      <c r="R607">
+        <v>6</v>
+      </c>
+      <c r="S607">
+        <v>0</v>
+      </c>
+      <c r="T607">
+        <v>6</v>
+      </c>
+      <c r="U607">
+        <v>4</v>
+      </c>
+      <c r="Z607">
+        <v>2</v>
+      </c>
+      <c r="AA607">
+        <v>1</v>
+      </c>
+      <c r="AB607" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC607">
+        <v>1.5</v>
+      </c>
+      <c r="AD607">
+        <v>2.63</v>
+      </c>
+      <c r="AE607">
+        <v>1.57</v>
+      </c>
+      <c r="AF607">
+        <v>2.59</v>
+      </c>
+      <c r="AG607">
+        <v>1.57</v>
+      </c>
+      <c r="AH607">
+        <v>2.63</v>
+      </c>
+      <c r="AI607">
+        <v>1.52</v>
+      </c>
+      <c r="AJ607">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
